--- a/Bases_de_Dados_(2022-2023)/Azerbaijan Premyer Liqası_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Azerbaijan Premyer Liqası_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="825" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="831" uniqueCount="225">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -491,6 +491,9 @@
   </si>
   <si>
     <t>['45', '75', '85', '90+2']</t>
+  </si>
+  <si>
+    <t>['19']</t>
   </si>
   <si>
     <t>['32', '90+4']</t>
@@ -1047,7 +1050,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK128"/>
+  <dimension ref="A1:BK129"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1291,7 +1294,7 @@
         <v>75</v>
       </c>
       <c r="P2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -1673,7 +1676,7 @@
         <v>77</v>
       </c>
       <c r="P4" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q4">
         <v>5</v>
@@ -2055,7 +2058,7 @@
         <v>77</v>
       </c>
       <c r="P6" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Q6">
         <v>4</v>
@@ -2142,10 +2145,10 @@
         <v>0</v>
       </c>
       <c r="AS6">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="AT6">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="AU6">
         <v>0</v>
@@ -2246,7 +2249,7 @@
         <v>79</v>
       </c>
       <c r="P7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q7">
         <v>2</v>
@@ -2437,7 +2440,7 @@
         <v>77</v>
       </c>
       <c r="P8" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Q8">
         <v>4</v>
@@ -2628,7 +2631,7 @@
         <v>77</v>
       </c>
       <c r="P9" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q9">
         <v>8</v>
@@ -2819,7 +2822,7 @@
         <v>80</v>
       </c>
       <c r="P10" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q10">
         <v>1</v>
@@ -3010,7 +3013,7 @@
         <v>81</v>
       </c>
       <c r="P11" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q11">
         <v>5</v>
@@ -3201,7 +3204,7 @@
         <v>82</v>
       </c>
       <c r="P12" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q12">
         <v>8</v>
@@ -3392,7 +3395,7 @@
         <v>83</v>
       </c>
       <c r="P13" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q13">
         <v>3</v>
@@ -3583,7 +3586,7 @@
         <v>77</v>
       </c>
       <c r="P14" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q14">
         <v>4</v>
@@ -3673,7 +3676,7 @@
         <v>1.08</v>
       </c>
       <c r="AT14">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="AU14">
         <v>0.89</v>
@@ -4156,7 +4159,7 @@
         <v>84</v>
       </c>
       <c r="P17" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q17">
         <v>1</v>
@@ -4347,7 +4350,7 @@
         <v>85</v>
       </c>
       <c r="P18" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q18">
         <v>5</v>
@@ -4729,7 +4732,7 @@
         <v>77</v>
       </c>
       <c r="P20" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q20">
         <v>7</v>
@@ -4920,7 +4923,7 @@
         <v>77</v>
       </c>
       <c r="P21" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q21">
         <v>0</v>
@@ -5111,7 +5114,7 @@
         <v>77</v>
       </c>
       <c r="P22" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q22">
         <v>7</v>
@@ -5684,7 +5687,7 @@
         <v>88</v>
       </c>
       <c r="P25" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q25">
         <v>4</v>
@@ -5774,7 +5777,7 @@
         <v>1.46</v>
       </c>
       <c r="AT25">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="AU25">
         <v>1.55</v>
@@ -5962,7 +5965,7 @@
         <v>0</v>
       </c>
       <c r="AS26">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="AT26">
         <v>0.54</v>
@@ -6066,7 +6069,7 @@
         <v>90</v>
       </c>
       <c r="P27" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q27">
         <v>3</v>
@@ -6257,7 +6260,7 @@
         <v>91</v>
       </c>
       <c r="P28" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q28">
         <v>8</v>
@@ -6448,7 +6451,7 @@
         <v>92</v>
       </c>
       <c r="P29" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q29">
         <v>3</v>
@@ -6639,7 +6642,7 @@
         <v>93</v>
       </c>
       <c r="P30" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q30">
         <v>5</v>
@@ -6830,7 +6833,7 @@
         <v>94</v>
       </c>
       <c r="P31" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q31">
         <v>6</v>
@@ -7021,7 +7024,7 @@
         <v>77</v>
       </c>
       <c r="P32" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q32">
         <v>-1</v>
@@ -7403,7 +7406,7 @@
         <v>96</v>
       </c>
       <c r="P34" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q34">
         <v>6</v>
@@ -7594,7 +7597,7 @@
         <v>79</v>
       </c>
       <c r="P35" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q35">
         <v>2</v>
@@ -7785,7 +7788,7 @@
         <v>97</v>
       </c>
       <c r="P36" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q36">
         <v>4</v>
@@ -7875,7 +7878,7 @@
         <v>1.08</v>
       </c>
       <c r="AT36">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="AU36">
         <v>1.66</v>
@@ -7976,7 +7979,7 @@
         <v>98</v>
       </c>
       <c r="P37" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q37">
         <v>5</v>
@@ -8063,7 +8066,7 @@
         <v>2</v>
       </c>
       <c r="AS37">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="AT37">
         <v>1.38</v>
@@ -8167,7 +8170,7 @@
         <v>99</v>
       </c>
       <c r="P38" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q38">
         <v>9</v>
@@ -8358,7 +8361,7 @@
         <v>77</v>
       </c>
       <c r="P39" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q39">
         <v>7</v>
@@ -9313,7 +9316,7 @@
         <v>77</v>
       </c>
       <c r="P44" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q44">
         <v>2</v>
@@ -9695,7 +9698,7 @@
         <v>103</v>
       </c>
       <c r="P46" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q46">
         <v>5</v>
@@ -9785,7 +9788,7 @@
         <v>1.08</v>
       </c>
       <c r="AT46">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="AU46">
         <v>1.36</v>
@@ -9886,7 +9889,7 @@
         <v>104</v>
       </c>
       <c r="P47" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q47">
         <v>5</v>
@@ -9973,7 +9976,7 @@
         <v>0.67</v>
       </c>
       <c r="AS47">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="AT47">
         <v>0.25</v>
@@ -10268,7 +10271,7 @@
         <v>77</v>
       </c>
       <c r="P49" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q49">
         <v>4</v>
@@ -10459,7 +10462,7 @@
         <v>106</v>
       </c>
       <c r="P50" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q50">
         <v>8</v>
@@ -11032,7 +11035,7 @@
         <v>77</v>
       </c>
       <c r="P53" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q53">
         <v>9</v>
@@ -11414,7 +11417,7 @@
         <v>109</v>
       </c>
       <c r="P55" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q55">
         <v>4</v>
@@ -11692,7 +11695,7 @@
         <v>0.17</v>
       </c>
       <c r="AS56">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="AT56">
         <v>0.5</v>
@@ -11987,7 +11990,7 @@
         <v>77</v>
       </c>
       <c r="P58" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q58">
         <v>2</v>
@@ -12178,7 +12181,7 @@
         <v>77</v>
       </c>
       <c r="P59" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q59">
         <v>2</v>
@@ -12369,7 +12372,7 @@
         <v>112</v>
       </c>
       <c r="P60" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q60">
         <v>7</v>
@@ -12459,7 +12462,7 @@
         <v>2.36</v>
       </c>
       <c r="AT60">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="AU60">
         <v>2.02</v>
@@ -12560,7 +12563,7 @@
         <v>90</v>
       </c>
       <c r="P61" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q61">
         <v>3</v>
@@ -12647,7 +12650,7 @@
         <v>0.33</v>
       </c>
       <c r="AS61">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="AT61">
         <v>0.54</v>
@@ -13133,7 +13136,7 @@
         <v>77</v>
       </c>
       <c r="P64" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q64">
         <v>6</v>
@@ -13515,7 +13518,7 @@
         <v>77</v>
       </c>
       <c r="P66" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q66">
         <v>2</v>
@@ -13602,7 +13605,7 @@
         <v>3</v>
       </c>
       <c r="AS66">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="AT66">
         <v>2.69</v>
@@ -13706,7 +13709,7 @@
         <v>116</v>
       </c>
       <c r="P67" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q67">
         <v>3</v>
@@ -14178,7 +14181,7 @@
         <v>2.38</v>
       </c>
       <c r="AT69">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="AU69">
         <v>1.85</v>
@@ -14661,7 +14664,7 @@
         <v>119</v>
       </c>
       <c r="P72" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q72">
         <v>4</v>
@@ -14852,7 +14855,7 @@
         <v>120</v>
       </c>
       <c r="P73" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q73">
         <v>4</v>
@@ -15234,7 +15237,7 @@
         <v>77</v>
       </c>
       <c r="P75" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q75">
         <v>2</v>
@@ -15321,7 +15324,7 @@
         <v>2.5</v>
       </c>
       <c r="AS75">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="AT75">
         <v>2.17</v>
@@ -15425,7 +15428,7 @@
         <v>121</v>
       </c>
       <c r="P76" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q76">
         <v>11</v>
@@ -15515,7 +15518,7 @@
         <v>1.17</v>
       </c>
       <c r="AT76">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="AU76">
         <v>1.34</v>
@@ -15616,7 +15619,7 @@
         <v>77</v>
       </c>
       <c r="P77" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q77">
         <v>1</v>
@@ -15807,7 +15810,7 @@
         <v>122</v>
       </c>
       <c r="P78" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q78">
         <v>1</v>
@@ -16189,7 +16192,7 @@
         <v>77</v>
       </c>
       <c r="P80" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q80">
         <v>2</v>
@@ -16380,7 +16383,7 @@
         <v>124</v>
       </c>
       <c r="P81" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q81">
         <v>12</v>
@@ -16852,7 +16855,7 @@
         <v>2.5</v>
       </c>
       <c r="AT83">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="AU83">
         <v>2.1</v>
@@ -16953,7 +16956,7 @@
         <v>126</v>
       </c>
       <c r="P84" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q84">
         <v>1</v>
@@ -17422,7 +17425,7 @@
         <v>2</v>
       </c>
       <c r="AS86">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="AT86">
         <v>1.75</v>
@@ -17717,7 +17720,7 @@
         <v>77</v>
       </c>
       <c r="P88" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q88">
         <v>5</v>
@@ -18099,7 +18102,7 @@
         <v>77</v>
       </c>
       <c r="P90" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q90">
         <v>3</v>
@@ -18290,7 +18293,7 @@
         <v>129</v>
       </c>
       <c r="P91" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q91">
         <v>1</v>
@@ -18481,7 +18484,7 @@
         <v>130</v>
       </c>
       <c r="P92" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q92">
         <v>12</v>
@@ -18571,7 +18574,7 @@
         <v>1.08</v>
       </c>
       <c r="AT92">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="AU92">
         <v>1.31</v>
@@ -18672,7 +18675,7 @@
         <v>131</v>
       </c>
       <c r="P93" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q93">
         <v>3</v>
@@ -18759,7 +18762,7 @@
         <v>2.78</v>
       </c>
       <c r="AS93">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="AT93">
         <v>2.69</v>
@@ -18863,7 +18866,7 @@
         <v>132</v>
       </c>
       <c r="P94" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q94">
         <v>7</v>
@@ -19627,7 +19630,7 @@
         <v>136</v>
       </c>
       <c r="P98" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q98">
         <v>6</v>
@@ -20009,7 +20012,7 @@
         <v>77</v>
       </c>
       <c r="P100" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q100">
         <v>2</v>
@@ -20391,7 +20394,7 @@
         <v>139</v>
       </c>
       <c r="P102" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q102">
         <v>1</v>
@@ -20582,7 +20585,7 @@
         <v>140</v>
       </c>
       <c r="P103" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q103">
         <v>9</v>
@@ -20672,7 +20675,7 @@
         <v>1.46</v>
       </c>
       <c r="AT103">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="AU103">
         <v>1.22</v>
@@ -20964,7 +20967,7 @@
         <v>77</v>
       </c>
       <c r="P105" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q105">
         <v>2</v>
@@ -21624,7 +21627,7 @@
         <v>0.4</v>
       </c>
       <c r="AS108">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="AT108">
         <v>0.54</v>
@@ -22301,7 +22304,7 @@
         <v>147</v>
       </c>
       <c r="P112" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q112">
         <v>8</v>
@@ -22492,7 +22495,7 @@
         <v>148</v>
       </c>
       <c r="P113" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q113">
         <v>2</v>
@@ -22874,7 +22877,7 @@
         <v>77</v>
       </c>
       <c r="P115" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q115">
         <v>10</v>
@@ -23065,7 +23068,7 @@
         <v>77</v>
       </c>
       <c r="P116" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q116">
         <v>2</v>
@@ -23256,7 +23259,7 @@
         <v>77</v>
       </c>
       <c r="P117" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q117">
         <v>8</v>
@@ -23343,7 +23346,7 @@
         <v>1.27</v>
       </c>
       <c r="AS117">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="AT117">
         <v>1.38</v>
@@ -23447,7 +23450,7 @@
         <v>150</v>
       </c>
       <c r="P118" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q118">
         <v>3</v>
@@ -23537,7 +23540,7 @@
         <v>1.08</v>
       </c>
       <c r="AT118">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="AU118">
         <v>1.46</v>
@@ -23829,7 +23832,7 @@
         <v>110</v>
       </c>
       <c r="P120" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q120">
         <v>7</v>
@@ -24211,7 +24214,7 @@
         <v>153</v>
       </c>
       <c r="P122" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q122">
         <v>2</v>
@@ -24402,7 +24405,7 @@
         <v>77</v>
       </c>
       <c r="P123" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q123">
         <v>3</v>
@@ -24784,7 +24787,7 @@
         <v>155</v>
       </c>
       <c r="P125" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q125">
         <v>2</v>
@@ -25499,6 +25502,197 @@
       </c>
       <c r="BK128">
         <v>8</v>
+      </c>
+    </row>
+    <row r="129" spans="1:63">
+      <c r="A129" s="1">
+        <v>128</v>
+      </c>
+      <c r="B129">
+        <v>3157131</v>
+      </c>
+      <c r="C129" t="s">
+        <v>63</v>
+      </c>
+      <c r="D129" t="s">
+        <v>64</v>
+      </c>
+      <c r="E129" s="2">
+        <v>44996.33333333334</v>
+      </c>
+      <c r="F129">
+        <v>26</v>
+      </c>
+      <c r="G129" t="s">
+        <v>69</v>
+      </c>
+      <c r="H129" t="s">
+        <v>73</v>
+      </c>
+      <c r="I129">
+        <v>1</v>
+      </c>
+      <c r="J129">
+        <v>1</v>
+      </c>
+      <c r="K129">
+        <v>2</v>
+      </c>
+      <c r="L129">
+        <v>1</v>
+      </c>
+      <c r="M129">
+        <v>1</v>
+      </c>
+      <c r="N129">
+        <v>2</v>
+      </c>
+      <c r="O129" t="s">
+        <v>159</v>
+      </c>
+      <c r="P129" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q129">
+        <v>7</v>
+      </c>
+      <c r="R129">
+        <v>5</v>
+      </c>
+      <c r="S129">
+        <v>12</v>
+      </c>
+      <c r="T129">
+        <v>4.5</v>
+      </c>
+      <c r="U129">
+        <v>1.95</v>
+      </c>
+      <c r="V129">
+        <v>2.63</v>
+      </c>
+      <c r="W129">
+        <v>1.52</v>
+      </c>
+      <c r="X129">
+        <v>2.46</v>
+      </c>
+      <c r="Y129">
+        <v>0</v>
+      </c>
+      <c r="Z129">
+        <v>0</v>
+      </c>
+      <c r="AA129">
+        <v>0</v>
+      </c>
+      <c r="AB129">
+        <v>0</v>
+      </c>
+      <c r="AC129">
+        <v>3.3</v>
+      </c>
+      <c r="AD129">
+        <v>3.25</v>
+      </c>
+      <c r="AE129">
+        <v>1.95</v>
+      </c>
+      <c r="AF129">
+        <v>0</v>
+      </c>
+      <c r="AG129">
+        <v>0</v>
+      </c>
+      <c r="AH129">
+        <v>0</v>
+      </c>
+      <c r="AI129">
+        <v>0</v>
+      </c>
+      <c r="AJ129">
+        <v>2.5</v>
+      </c>
+      <c r="AK129">
+        <v>1.5</v>
+      </c>
+      <c r="AL129">
+        <v>0</v>
+      </c>
+      <c r="AM129">
+        <v>0</v>
+      </c>
+      <c r="AN129">
+        <v>0</v>
+      </c>
+      <c r="AO129">
+        <v>0</v>
+      </c>
+      <c r="AP129">
+        <v>0</v>
+      </c>
+      <c r="AQ129">
+        <v>0.83</v>
+      </c>
+      <c r="AR129">
+        <v>1.17</v>
+      </c>
+      <c r="AS129">
+        <v>0.85</v>
+      </c>
+      <c r="AT129">
+        <v>1.15</v>
+      </c>
+      <c r="AU129">
+        <v>1.23</v>
+      </c>
+      <c r="AV129">
+        <v>1.71</v>
+      </c>
+      <c r="AW129">
+        <v>2.94</v>
+      </c>
+      <c r="AX129">
+        <v>0</v>
+      </c>
+      <c r="AY129">
+        <v>0</v>
+      </c>
+      <c r="AZ129">
+        <v>0</v>
+      </c>
+      <c r="BA129">
+        <v>0</v>
+      </c>
+      <c r="BB129">
+        <v>0</v>
+      </c>
+      <c r="BC129">
+        <v>0</v>
+      </c>
+      <c r="BD129">
+        <v>0</v>
+      </c>
+      <c r="BE129">
+        <v>0</v>
+      </c>
+      <c r="BF129">
+        <v>6</v>
+      </c>
+      <c r="BG129">
+        <v>6</v>
+      </c>
+      <c r="BH129">
+        <v>8</v>
+      </c>
+      <c r="BI129">
+        <v>5</v>
+      </c>
+      <c r="BJ129">
+        <v>14</v>
+      </c>
+      <c r="BK129">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Azerbaijan Premyer Liqası_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Azerbaijan Premyer Liqası_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="831" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="843" uniqueCount="227">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -496,6 +496,9 @@
     <t>['19']</t>
   </si>
   <si>
+    <t>['24', '35', '53']</t>
+  </si>
+  <si>
     <t>['32', '90+4']</t>
   </si>
   <si>
@@ -689,6 +692,9 @@
   </si>
   <si>
     <t>['38', '55', '68']</t>
+  </si>
+  <si>
+    <t>['81']</t>
   </si>
 </sst>
 </file>
@@ -1050,7 +1056,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK129"/>
+  <dimension ref="A1:BK131"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1294,7 +1300,7 @@
         <v>75</v>
       </c>
       <c r="P2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -1572,10 +1578,10 @@
         <v>0</v>
       </c>
       <c r="AS3">
-        <v>2.5</v>
+        <v>2.54</v>
       </c>
       <c r="AT3">
-        <v>0.25</v>
+        <v>0.23</v>
       </c>
       <c r="AU3">
         <v>0</v>
@@ -1676,7 +1682,7 @@
         <v>77</v>
       </c>
       <c r="P4" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Q4">
         <v>5</v>
@@ -1763,10 +1769,10 @@
         <v>0</v>
       </c>
       <c r="AS4">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AT4">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AU4">
         <v>0</v>
@@ -2058,7 +2064,7 @@
         <v>77</v>
       </c>
       <c r="P6" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q6">
         <v>4</v>
@@ -2249,7 +2255,7 @@
         <v>79</v>
       </c>
       <c r="P7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Q7">
         <v>2</v>
@@ -2440,7 +2446,7 @@
         <v>77</v>
       </c>
       <c r="P8" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q8">
         <v>4</v>
@@ -2631,7 +2637,7 @@
         <v>77</v>
       </c>
       <c r="P9" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q9">
         <v>8</v>
@@ -2822,7 +2828,7 @@
         <v>80</v>
       </c>
       <c r="P10" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q10">
         <v>1</v>
@@ -3013,7 +3019,7 @@
         <v>81</v>
       </c>
       <c r="P11" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q11">
         <v>5</v>
@@ -3204,7 +3210,7 @@
         <v>82</v>
       </c>
       <c r="P12" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q12">
         <v>8</v>
@@ -3291,10 +3297,10 @@
         <v>0</v>
       </c>
       <c r="AS12">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AT12">
-        <v>0.25</v>
+        <v>0.23</v>
       </c>
       <c r="AU12">
         <v>1.4</v>
@@ -3395,7 +3401,7 @@
         <v>83</v>
       </c>
       <c r="P13" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q13">
         <v>3</v>
@@ -3485,7 +3491,7 @@
         <v>2.36</v>
       </c>
       <c r="AT13">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AU13">
         <v>1.77</v>
@@ -3586,7 +3592,7 @@
         <v>77</v>
       </c>
       <c r="P14" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q14">
         <v>4</v>
@@ -4159,7 +4165,7 @@
         <v>84</v>
       </c>
       <c r="P17" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q17">
         <v>1</v>
@@ -4350,7 +4356,7 @@
         <v>85</v>
       </c>
       <c r="P18" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q18">
         <v>5</v>
@@ -4628,7 +4634,7 @@
         <v>0</v>
       </c>
       <c r="AS19">
-        <v>2.5</v>
+        <v>2.54</v>
       </c>
       <c r="AT19">
         <v>0.54</v>
@@ -4732,7 +4738,7 @@
         <v>77</v>
       </c>
       <c r="P20" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q20">
         <v>7</v>
@@ -4923,7 +4929,7 @@
         <v>77</v>
       </c>
       <c r="P21" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q21">
         <v>0</v>
@@ -5114,7 +5120,7 @@
         <v>77</v>
       </c>
       <c r="P22" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q22">
         <v>7</v>
@@ -5201,7 +5207,7 @@
         <v>2</v>
       </c>
       <c r="AS22">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AT22">
         <v>1.23</v>
@@ -5586,7 +5592,7 @@
         <v>2.36</v>
       </c>
       <c r="AT24">
-        <v>0.25</v>
+        <v>0.23</v>
       </c>
       <c r="AU24">
         <v>1.76</v>
@@ -5687,7 +5693,7 @@
         <v>88</v>
       </c>
       <c r="P25" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q25">
         <v>4</v>
@@ -6069,7 +6075,7 @@
         <v>90</v>
       </c>
       <c r="P27" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q27">
         <v>3</v>
@@ -6159,7 +6165,7 @@
         <v>1.38</v>
       </c>
       <c r="AT27">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AU27">
         <v>0.9399999999999999</v>
@@ -6260,7 +6266,7 @@
         <v>91</v>
       </c>
       <c r="P28" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q28">
         <v>8</v>
@@ -6451,7 +6457,7 @@
         <v>92</v>
       </c>
       <c r="P29" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q29">
         <v>3</v>
@@ -6642,7 +6648,7 @@
         <v>93</v>
       </c>
       <c r="P30" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q30">
         <v>5</v>
@@ -6729,7 +6735,7 @@
         <v>3</v>
       </c>
       <c r="AS30">
-        <v>2.5</v>
+        <v>2.54</v>
       </c>
       <c r="AT30">
         <v>2.17</v>
@@ -6833,7 +6839,7 @@
         <v>94</v>
       </c>
       <c r="P31" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q31">
         <v>6</v>
@@ -7024,7 +7030,7 @@
         <v>77</v>
       </c>
       <c r="P32" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q32">
         <v>-1</v>
@@ -7114,7 +7120,7 @@
         <v>1.08</v>
       </c>
       <c r="AT32">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AU32">
         <v>1.66</v>
@@ -7406,7 +7412,7 @@
         <v>96</v>
       </c>
       <c r="P34" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q34">
         <v>6</v>
@@ -7597,7 +7603,7 @@
         <v>79</v>
       </c>
       <c r="P35" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q35">
         <v>2</v>
@@ -7788,7 +7794,7 @@
         <v>97</v>
       </c>
       <c r="P36" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q36">
         <v>4</v>
@@ -7979,7 +7985,7 @@
         <v>98</v>
       </c>
       <c r="P37" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q37">
         <v>5</v>
@@ -8170,7 +8176,7 @@
         <v>99</v>
       </c>
       <c r="P38" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q38">
         <v>9</v>
@@ -8257,10 +8263,10 @@
         <v>2.25</v>
       </c>
       <c r="AS38">
-        <v>2.5</v>
+        <v>2.54</v>
       </c>
       <c r="AT38">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AU38">
         <v>2.16</v>
@@ -8361,7 +8367,7 @@
         <v>77</v>
       </c>
       <c r="P39" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q39">
         <v>7</v>
@@ -8448,7 +8454,7 @@
         <v>2</v>
       </c>
       <c r="AS39">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AT39">
         <v>2.17</v>
@@ -9316,7 +9322,7 @@
         <v>77</v>
       </c>
       <c r="P44" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q44">
         <v>2</v>
@@ -9698,7 +9704,7 @@
         <v>103</v>
       </c>
       <c r="P46" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q46">
         <v>5</v>
@@ -9785,7 +9791,7 @@
         <v>2.25</v>
       </c>
       <c r="AS46">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AT46">
         <v>1.15</v>
@@ -9889,7 +9895,7 @@
         <v>104</v>
       </c>
       <c r="P47" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q47">
         <v>5</v>
@@ -9979,7 +9985,7 @@
         <v>0.85</v>
       </c>
       <c r="AT47">
-        <v>0.25</v>
+        <v>0.23</v>
       </c>
       <c r="AU47">
         <v>1.45</v>
@@ -10271,7 +10277,7 @@
         <v>77</v>
       </c>
       <c r="P49" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q49">
         <v>4</v>
@@ -10361,7 +10367,7 @@
         <v>1.08</v>
       </c>
       <c r="AT49">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AU49">
         <v>1.11</v>
@@ -10462,7 +10468,7 @@
         <v>106</v>
       </c>
       <c r="P50" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q50">
         <v>8</v>
@@ -10549,7 +10555,7 @@
         <v>0.2</v>
       </c>
       <c r="AS50">
-        <v>2.5</v>
+        <v>2.54</v>
       </c>
       <c r="AT50">
         <v>0.5</v>
@@ -10740,7 +10746,7 @@
         <v>1.6</v>
       </c>
       <c r="AS51">
-        <v>2.5</v>
+        <v>2.54</v>
       </c>
       <c r="AT51">
         <v>1.23</v>
@@ -11035,7 +11041,7 @@
         <v>77</v>
       </c>
       <c r="P53" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q53">
         <v>9</v>
@@ -11417,7 +11423,7 @@
         <v>109</v>
       </c>
       <c r="P55" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q55">
         <v>4</v>
@@ -11889,7 +11895,7 @@
         <v>1.08</v>
       </c>
       <c r="AT57">
-        <v>0.25</v>
+        <v>0.23</v>
       </c>
       <c r="AU57">
         <v>1.12</v>
@@ -11990,7 +11996,7 @@
         <v>77</v>
       </c>
       <c r="P58" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q58">
         <v>2</v>
@@ -12080,7 +12086,7 @@
         <v>1.46</v>
       </c>
       <c r="AT58">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AU58">
         <v>1.19</v>
@@ -12181,7 +12187,7 @@
         <v>77</v>
       </c>
       <c r="P59" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q59">
         <v>2</v>
@@ -12268,7 +12274,7 @@
         <v>3</v>
       </c>
       <c r="AS59">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AT59">
         <v>2.69</v>
@@ -12372,7 +12378,7 @@
         <v>112</v>
       </c>
       <c r="P60" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q60">
         <v>7</v>
@@ -12563,7 +12569,7 @@
         <v>90</v>
       </c>
       <c r="P61" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q61">
         <v>3</v>
@@ -13035,7 +13041,7 @@
         <v>1.17</v>
       </c>
       <c r="AT63">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AU63">
         <v>1.34</v>
@@ -13136,7 +13142,7 @@
         <v>77</v>
       </c>
       <c r="P64" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q64">
         <v>6</v>
@@ -13414,7 +13420,7 @@
         <v>0.33</v>
       </c>
       <c r="AS65">
-        <v>2.5</v>
+        <v>2.54</v>
       </c>
       <c r="AT65">
         <v>0.54</v>
@@ -13518,7 +13524,7 @@
         <v>77</v>
       </c>
       <c r="P66" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q66">
         <v>2</v>
@@ -13709,7 +13715,7 @@
         <v>116</v>
       </c>
       <c r="P67" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q67">
         <v>3</v>
@@ -13796,7 +13802,7 @@
         <v>0.14</v>
       </c>
       <c r="AS67">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AT67">
         <v>0.5</v>
@@ -13990,7 +13996,7 @@
         <v>1.46</v>
       </c>
       <c r="AT68">
-        <v>0.25</v>
+        <v>0.23</v>
       </c>
       <c r="AU68">
         <v>1.06</v>
@@ -14664,7 +14670,7 @@
         <v>119</v>
       </c>
       <c r="P72" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q72">
         <v>4</v>
@@ -14754,7 +14760,7 @@
         <v>2.38</v>
       </c>
       <c r="AT72">
-        <v>0.25</v>
+        <v>0.23</v>
       </c>
       <c r="AU72">
         <v>1.76</v>
@@ -14855,7 +14861,7 @@
         <v>120</v>
       </c>
       <c r="P73" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q73">
         <v>4</v>
@@ -14942,7 +14948,7 @@
         <v>0.29</v>
       </c>
       <c r="AS73">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AT73">
         <v>0.54</v>
@@ -15133,7 +15139,7 @@
         <v>1.71</v>
       </c>
       <c r="AS74">
-        <v>2.5</v>
+        <v>2.54</v>
       </c>
       <c r="AT74">
         <v>1.38</v>
@@ -15237,7 +15243,7 @@
         <v>77</v>
       </c>
       <c r="P75" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Q75">
         <v>2</v>
@@ -15428,7 +15434,7 @@
         <v>121</v>
       </c>
       <c r="P76" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q76">
         <v>11</v>
@@ -15619,7 +15625,7 @@
         <v>77</v>
       </c>
       <c r="P77" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q77">
         <v>1</v>
@@ -15810,7 +15816,7 @@
         <v>122</v>
       </c>
       <c r="P78" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q78">
         <v>1</v>
@@ -15900,7 +15906,7 @@
         <v>1.38</v>
       </c>
       <c r="AT78">
-        <v>0.25</v>
+        <v>0.23</v>
       </c>
       <c r="AU78">
         <v>1.18</v>
@@ -16192,7 +16198,7 @@
         <v>77</v>
       </c>
       <c r="P80" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q80">
         <v>2</v>
@@ -16383,7 +16389,7 @@
         <v>124</v>
       </c>
       <c r="P81" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q81">
         <v>12</v>
@@ -16661,7 +16667,7 @@
         <v>1.63</v>
       </c>
       <c r="AS82">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AT82">
         <v>1.38</v>
@@ -16852,7 +16858,7 @@
         <v>1.38</v>
       </c>
       <c r="AS83">
-        <v>2.5</v>
+        <v>2.54</v>
       </c>
       <c r="AT83">
         <v>1.15</v>
@@ -16956,7 +16962,7 @@
         <v>126</v>
       </c>
       <c r="P84" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q84">
         <v>1</v>
@@ -17237,7 +17243,7 @@
         <v>1.17</v>
       </c>
       <c r="AT85">
-        <v>0.25</v>
+        <v>0.23</v>
       </c>
       <c r="AU85">
         <v>1.37</v>
@@ -17428,7 +17434,7 @@
         <v>0.85</v>
       </c>
       <c r="AT86">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AU86">
         <v>1.23</v>
@@ -17720,7 +17726,7 @@
         <v>77</v>
       </c>
       <c r="P88" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q88">
         <v>5</v>
@@ -18102,7 +18108,7 @@
         <v>77</v>
       </c>
       <c r="P90" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q90">
         <v>3</v>
@@ -18293,7 +18299,7 @@
         <v>129</v>
       </c>
       <c r="P91" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q91">
         <v>1</v>
@@ -18484,7 +18490,7 @@
         <v>130</v>
       </c>
       <c r="P92" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q92">
         <v>12</v>
@@ -18675,7 +18681,7 @@
         <v>131</v>
       </c>
       <c r="P93" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q93">
         <v>3</v>
@@ -18866,7 +18872,7 @@
         <v>132</v>
       </c>
       <c r="P94" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q94">
         <v>7</v>
@@ -19144,10 +19150,10 @@
         <v>0.33</v>
       </c>
       <c r="AS95">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AT95">
-        <v>0.25</v>
+        <v>0.23</v>
       </c>
       <c r="AU95">
         <v>1.3</v>
@@ -19338,7 +19344,7 @@
         <v>2.36</v>
       </c>
       <c r="AT96">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AU96">
         <v>1.93</v>
@@ -19630,7 +19636,7 @@
         <v>136</v>
       </c>
       <c r="P98" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Q98">
         <v>6</v>
@@ -19717,7 +19723,7 @@
         <v>0.67</v>
       </c>
       <c r="AS98">
-        <v>2.5</v>
+        <v>2.54</v>
       </c>
       <c r="AT98">
         <v>0.54</v>
@@ -20012,7 +20018,7 @@
         <v>77</v>
       </c>
       <c r="P100" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q100">
         <v>2</v>
@@ -20394,7 +20400,7 @@
         <v>139</v>
       </c>
       <c r="P102" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q102">
         <v>1</v>
@@ -20585,7 +20591,7 @@
         <v>140</v>
       </c>
       <c r="P103" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q103">
         <v>9</v>
@@ -20967,7 +20973,7 @@
         <v>77</v>
       </c>
       <c r="P105" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q105">
         <v>2</v>
@@ -21054,7 +21060,7 @@
         <v>1</v>
       </c>
       <c r="AS105">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AT105">
         <v>1.23</v>
@@ -21248,7 +21254,7 @@
         <v>2.36</v>
       </c>
       <c r="AT106">
-        <v>0.25</v>
+        <v>0.23</v>
       </c>
       <c r="AU106">
         <v>1.95</v>
@@ -21439,7 +21445,7 @@
         <v>1.38</v>
       </c>
       <c r="AT107">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AU107">
         <v>1.25</v>
@@ -21818,7 +21824,7 @@
         <v>2.5</v>
       </c>
       <c r="AS109">
-        <v>2.5</v>
+        <v>2.54</v>
       </c>
       <c r="AT109">
         <v>2.17</v>
@@ -22304,7 +22310,7 @@
         <v>147</v>
       </c>
       <c r="P112" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q112">
         <v>8</v>
@@ -22495,7 +22501,7 @@
         <v>148</v>
       </c>
       <c r="P113" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q113">
         <v>2</v>
@@ -22776,7 +22782,7 @@
         <v>2.38</v>
       </c>
       <c r="AT114">
-        <v>0.25</v>
+        <v>0.23</v>
       </c>
       <c r="AU114">
         <v>1.63</v>
@@ -22877,7 +22883,7 @@
         <v>77</v>
       </c>
       <c r="P115" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q115">
         <v>10</v>
@@ -23068,7 +23074,7 @@
         <v>77</v>
       </c>
       <c r="P116" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q116">
         <v>2</v>
@@ -23259,7 +23265,7 @@
         <v>77</v>
       </c>
       <c r="P117" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q117">
         <v>8</v>
@@ -23450,7 +23456,7 @@
         <v>150</v>
       </c>
       <c r="P118" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q118">
         <v>3</v>
@@ -23728,7 +23734,7 @@
         <v>2.36</v>
       </c>
       <c r="AS119">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AT119">
         <v>2.17</v>
@@ -23832,7 +23838,7 @@
         <v>110</v>
       </c>
       <c r="P120" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q120">
         <v>7</v>
@@ -24110,10 +24116,10 @@
         <v>1.82</v>
       </c>
       <c r="AS121">
-        <v>2.5</v>
+        <v>2.54</v>
       </c>
       <c r="AT121">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AU121">
         <v>2.02</v>
@@ -24214,7 +24220,7 @@
         <v>153</v>
       </c>
       <c r="P122" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q122">
         <v>2</v>
@@ -24405,7 +24411,7 @@
         <v>77</v>
       </c>
       <c r="P123" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q123">
         <v>3</v>
@@ -24787,7 +24793,7 @@
         <v>155</v>
       </c>
       <c r="P125" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q125">
         <v>2</v>
@@ -25693,6 +25699,388 @@
       </c>
       <c r="BK129">
         <v>11</v>
+      </c>
+    </row>
+    <row r="130" spans="1:63">
+      <c r="A130" s="1">
+        <v>129</v>
+      </c>
+      <c r="B130">
+        <v>3157132</v>
+      </c>
+      <c r="C130" t="s">
+        <v>63</v>
+      </c>
+      <c r="D130" t="s">
+        <v>64</v>
+      </c>
+      <c r="E130" s="2">
+        <v>44996.45833333334</v>
+      </c>
+      <c r="F130">
+        <v>26</v>
+      </c>
+      <c r="G130" t="s">
+        <v>66</v>
+      </c>
+      <c r="H130" t="s">
+        <v>72</v>
+      </c>
+      <c r="I130">
+        <v>2</v>
+      </c>
+      <c r="J130">
+        <v>0</v>
+      </c>
+      <c r="K130">
+        <v>2</v>
+      </c>
+      <c r="L130">
+        <v>3</v>
+      </c>
+      <c r="M130">
+        <v>0</v>
+      </c>
+      <c r="N130">
+        <v>3</v>
+      </c>
+      <c r="O130" t="s">
+        <v>160</v>
+      </c>
+      <c r="P130" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q130">
+        <v>14</v>
+      </c>
+      <c r="R130">
+        <v>6</v>
+      </c>
+      <c r="S130">
+        <v>20</v>
+      </c>
+      <c r="T130">
+        <v>1.36</v>
+      </c>
+      <c r="U130">
+        <v>3.25</v>
+      </c>
+      <c r="V130">
+        <v>13</v>
+      </c>
+      <c r="W130">
+        <v>1.2</v>
+      </c>
+      <c r="X130">
+        <v>4.32</v>
+      </c>
+      <c r="Y130">
+        <v>2.06</v>
+      </c>
+      <c r="Z130">
+        <v>1.71</v>
+      </c>
+      <c r="AA130">
+        <v>3.74</v>
+      </c>
+      <c r="AB130">
+        <v>1.25</v>
+      </c>
+      <c r="AC130">
+        <v>1.09</v>
+      </c>
+      <c r="AD130">
+        <v>10</v>
+      </c>
+      <c r="AE130">
+        <v>17</v>
+      </c>
+      <c r="AF130">
+        <v>1.01</v>
+      </c>
+      <c r="AG130">
+        <v>28</v>
+      </c>
+      <c r="AH130">
+        <v>1.11</v>
+      </c>
+      <c r="AI130">
+        <v>5.6</v>
+      </c>
+      <c r="AJ130">
+        <v>1.3</v>
+      </c>
+      <c r="AK130">
+        <v>3.5</v>
+      </c>
+      <c r="AL130">
+        <v>2.55</v>
+      </c>
+      <c r="AM130">
+        <v>1.45</v>
+      </c>
+      <c r="AN130">
+        <v>1.01</v>
+      </c>
+      <c r="AO130">
+        <v>1.05</v>
+      </c>
+      <c r="AP130">
+        <v>5.95</v>
+      </c>
+      <c r="AQ130">
+        <v>2.5</v>
+      </c>
+      <c r="AR130">
+        <v>0.25</v>
+      </c>
+      <c r="AS130">
+        <v>2.54</v>
+      </c>
+      <c r="AT130">
+        <v>0.23</v>
+      </c>
+      <c r="AU130">
+        <v>1.97</v>
+      </c>
+      <c r="AV130">
+        <v>1.18</v>
+      </c>
+      <c r="AW130">
+        <v>3.15</v>
+      </c>
+      <c r="AX130">
+        <v>0</v>
+      </c>
+      <c r="AY130">
+        <v>0</v>
+      </c>
+      <c r="AZ130">
+        <v>0</v>
+      </c>
+      <c r="BA130">
+        <v>0</v>
+      </c>
+      <c r="BB130">
+        <v>0</v>
+      </c>
+      <c r="BC130">
+        <v>0</v>
+      </c>
+      <c r="BD130">
+        <v>0</v>
+      </c>
+      <c r="BE130">
+        <v>0</v>
+      </c>
+      <c r="BF130">
+        <v>7</v>
+      </c>
+      <c r="BG130">
+        <v>3</v>
+      </c>
+      <c r="BH130">
+        <v>5</v>
+      </c>
+      <c r="BI130">
+        <v>3</v>
+      </c>
+      <c r="BJ130">
+        <v>12</v>
+      </c>
+      <c r="BK130">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="131" spans="1:63">
+      <c r="A131" s="1">
+        <v>130</v>
+      </c>
+      <c r="B131">
+        <v>3157130</v>
+      </c>
+      <c r="C131" t="s">
+        <v>63</v>
+      </c>
+      <c r="D131" t="s">
+        <v>64</v>
+      </c>
+      <c r="E131" s="2">
+        <v>44997.33333333334</v>
+      </c>
+      <c r="F131">
+        <v>26</v>
+      </c>
+      <c r="G131" t="s">
+        <v>67</v>
+      </c>
+      <c r="H131" t="s">
+        <v>74</v>
+      </c>
+      <c r="I131">
+        <v>0</v>
+      </c>
+      <c r="J131">
+        <v>0</v>
+      </c>
+      <c r="K131">
+        <v>0</v>
+      </c>
+      <c r="L131">
+        <v>0</v>
+      </c>
+      <c r="M131">
+        <v>1</v>
+      </c>
+      <c r="N131">
+        <v>1</v>
+      </c>
+      <c r="O131" t="s">
+        <v>77</v>
+      </c>
+      <c r="P131" t="s">
+        <v>226</v>
+      </c>
+      <c r="Q131">
+        <v>6</v>
+      </c>
+      <c r="R131">
+        <v>2</v>
+      </c>
+      <c r="S131">
+        <v>8</v>
+      </c>
+      <c r="T131">
+        <v>5</v>
+      </c>
+      <c r="U131">
+        <v>2.1</v>
+      </c>
+      <c r="V131">
+        <v>2.25</v>
+      </c>
+      <c r="W131">
+        <v>1.43</v>
+      </c>
+      <c r="X131">
+        <v>2.7</v>
+      </c>
+      <c r="Y131">
+        <v>2.99</v>
+      </c>
+      <c r="Z131">
+        <v>1.36</v>
+      </c>
+      <c r="AA131">
+        <v>7.6</v>
+      </c>
+      <c r="AB131">
+        <v>1.05</v>
+      </c>
+      <c r="AC131">
+        <v>5</v>
+      </c>
+      <c r="AD131">
+        <v>3.4</v>
+      </c>
+      <c r="AE131">
+        <v>1.65</v>
+      </c>
+      <c r="AF131">
+        <v>1.05</v>
+      </c>
+      <c r="AG131">
+        <v>10.25</v>
+      </c>
+      <c r="AH131">
+        <v>1.35</v>
+      </c>
+      <c r="AI131">
+        <v>2.96</v>
+      </c>
+      <c r="AJ131">
+        <v>2.05</v>
+      </c>
+      <c r="AK131">
+        <v>1.75</v>
+      </c>
+      <c r="AL131">
+        <v>1.9</v>
+      </c>
+      <c r="AM131">
+        <v>1.8</v>
+      </c>
+      <c r="AN131">
+        <v>2.25</v>
+      </c>
+      <c r="AO131">
+        <v>1.25</v>
+      </c>
+      <c r="AP131">
+        <v>1.12</v>
+      </c>
+      <c r="AQ131">
+        <v>1.08</v>
+      </c>
+      <c r="AR131">
+        <v>1.75</v>
+      </c>
+      <c r="AS131">
+        <v>1</v>
+      </c>
+      <c r="AT131">
+        <v>1.85</v>
+      </c>
+      <c r="AU131">
+        <v>1.26</v>
+      </c>
+      <c r="AV131">
+        <v>1.38</v>
+      </c>
+      <c r="AW131">
+        <v>2.64</v>
+      </c>
+      <c r="AX131">
+        <v>0</v>
+      </c>
+      <c r="AY131">
+        <v>0</v>
+      </c>
+      <c r="AZ131">
+        <v>0</v>
+      </c>
+      <c r="BA131">
+        <v>0</v>
+      </c>
+      <c r="BB131">
+        <v>1.88</v>
+      </c>
+      <c r="BC131">
+        <v>0</v>
+      </c>
+      <c r="BD131">
+        <v>0</v>
+      </c>
+      <c r="BE131">
+        <v>0</v>
+      </c>
+      <c r="BF131">
+        <v>4</v>
+      </c>
+      <c r="BG131">
+        <v>5</v>
+      </c>
+      <c r="BH131">
+        <v>8</v>
+      </c>
+      <c r="BI131">
+        <v>9</v>
+      </c>
+      <c r="BJ131">
+        <v>12</v>
+      </c>
+      <c r="BK131">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Azerbaijan Premyer Liqası_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Azerbaijan Premyer Liqası_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK136"/>
+  <dimension ref="A1:BK141"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -900,7 +900,7 @@
         <v>0</v>
       </c>
       <c r="AS2" t="n">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AT2" t="n">
         <v>1.38</v>
@@ -1106,7 +1106,7 @@
         <v>2.54</v>
       </c>
       <c r="AT3" t="n">
-        <v>0.23</v>
+        <v>0.21</v>
       </c>
       <c r="AU3" t="n">
         <v>0</v>
@@ -1306,10 +1306,10 @@
         <v>0</v>
       </c>
       <c r="AS4" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AT4" t="n">
-        <v>1.85</v>
+        <v>1.79</v>
       </c>
       <c r="AU4" t="n">
         <v>0</v>
@@ -1509,10 +1509,10 @@
         <v>0</v>
       </c>
       <c r="AS5" t="n">
-        <v>2.36</v>
+        <v>2.4</v>
       </c>
       <c r="AT5" t="n">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AU5" t="n">
         <v>0</v>
@@ -1712,10 +1712,10 @@
         <v>0</v>
       </c>
       <c r="AS6" t="n">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AT6" t="n">
-        <v>1.15</v>
+        <v>1.07</v>
       </c>
       <c r="AU6" t="n">
         <v>0</v>
@@ -1915,7 +1915,7 @@
         <v>0</v>
       </c>
       <c r="AS7" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AT7" t="n">
         <v>2.23</v>
@@ -2121,7 +2121,7 @@
         <v>1.08</v>
       </c>
       <c r="AT8" t="n">
-        <v>2.71</v>
+        <v>2.73</v>
       </c>
       <c r="AU8" t="n">
         <v>0</v>
@@ -2930,10 +2930,10 @@
         <v>0</v>
       </c>
       <c r="AS12" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AT12" t="n">
-        <v>0.23</v>
+        <v>0.21</v>
       </c>
       <c r="AU12" t="n">
         <v>1.4</v>
@@ -3133,10 +3133,10 @@
         <v>3</v>
       </c>
       <c r="AS13" t="n">
-        <v>2.36</v>
+        <v>2.4</v>
       </c>
       <c r="AT13" t="n">
-        <v>1.85</v>
+        <v>1.79</v>
       </c>
       <c r="AU13" t="n">
         <v>1.77</v>
@@ -3336,10 +3336,10 @@
         <v>3</v>
       </c>
       <c r="AS14" t="n">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AT14" t="n">
-        <v>1.15</v>
+        <v>1.07</v>
       </c>
       <c r="AU14" t="n">
         <v>0.89</v>
@@ -3539,10 +3539,10 @@
         <v>0</v>
       </c>
       <c r="AS15" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AT15" t="n">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AU15" t="n">
         <v>1.25</v>
@@ -4757,10 +4757,10 @@
         <v>3</v>
       </c>
       <c r="AS21" t="n">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AT21" t="n">
-        <v>2.71</v>
+        <v>2.73</v>
       </c>
       <c r="AU21" t="n">
         <v>1.35</v>
@@ -4960,7 +4960,7 @@
         <v>2</v>
       </c>
       <c r="AS22" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AT22" t="n">
         <v>1.21</v>
@@ -5166,7 +5166,7 @@
         <v>2.29</v>
       </c>
       <c r="AT23" t="n">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AU23" t="n">
         <v>2.11</v>
@@ -5366,10 +5366,10 @@
         <v>0.5</v>
       </c>
       <c r="AS24" t="n">
-        <v>2.36</v>
+        <v>2.4</v>
       </c>
       <c r="AT24" t="n">
-        <v>0.23</v>
+        <v>0.21</v>
       </c>
       <c r="AU24" t="n">
         <v>1.76</v>
@@ -5569,10 +5569,10 @@
         <v>3</v>
       </c>
       <c r="AS25" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AT25" t="n">
-        <v>1.15</v>
+        <v>1.07</v>
       </c>
       <c r="AU25" t="n">
         <v>1.55</v>
@@ -5772,7 +5772,7 @@
         <v>0</v>
       </c>
       <c r="AS26" t="n">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AT26" t="n">
         <v>0.57</v>
@@ -5978,7 +5978,7 @@
         <v>1.5</v>
       </c>
       <c r="AT27" t="n">
-        <v>1.85</v>
+        <v>1.79</v>
       </c>
       <c r="AU27" t="n">
         <v>0.9399999999999999</v>
@@ -6787,7 +6787,7 @@
         <v>2.33</v>
       </c>
       <c r="AS31" t="n">
-        <v>2.36</v>
+        <v>2.4</v>
       </c>
       <c r="AT31" t="n">
         <v>1.21</v>
@@ -6993,7 +6993,7 @@
         <v>1.07</v>
       </c>
       <c r="AT32" t="n">
-        <v>1.85</v>
+        <v>1.79</v>
       </c>
       <c r="AU32" t="n">
         <v>1.66</v>
@@ -7196,7 +7196,7 @@
         <v>1.5</v>
       </c>
       <c r="AT33" t="n">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AU33" t="n">
         <v>1.02</v>
@@ -7396,7 +7396,7 @@
         <v>0.33</v>
       </c>
       <c r="AS34" t="n">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AT34" t="n">
         <v>0.5</v>
@@ -7599,10 +7599,10 @@
         <v>3</v>
       </c>
       <c r="AS35" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AT35" t="n">
-        <v>2.71</v>
+        <v>2.73</v>
       </c>
       <c r="AU35" t="n">
         <v>1.36</v>
@@ -7805,7 +7805,7 @@
         <v>1.07</v>
       </c>
       <c r="AT36" t="n">
-        <v>1.15</v>
+        <v>1.07</v>
       </c>
       <c r="AU36" t="n">
         <v>1.66</v>
@@ -8005,7 +8005,7 @@
         <v>2</v>
       </c>
       <c r="AS37" t="n">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AT37" t="n">
         <v>1.38</v>
@@ -8211,7 +8211,7 @@
         <v>2.54</v>
       </c>
       <c r="AT38" t="n">
-        <v>1.85</v>
+        <v>1.79</v>
       </c>
       <c r="AU38" t="n">
         <v>2.16</v>
@@ -8411,7 +8411,7 @@
         <v>2</v>
       </c>
       <c r="AS39" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AT39" t="n">
         <v>2.23</v>
@@ -8817,7 +8817,7 @@
         <v>0.25</v>
       </c>
       <c r="AS41" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AT41" t="n">
         <v>0.5</v>
@@ -9023,7 +9023,7 @@
         <v>1.07</v>
       </c>
       <c r="AT42" t="n">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AU42" t="n">
         <v>1.45</v>
@@ -9429,7 +9429,7 @@
         <v>1.5</v>
       </c>
       <c r="AT44" t="n">
-        <v>2.71</v>
+        <v>2.73</v>
       </c>
       <c r="AU44" t="n">
         <v>1.23</v>
@@ -9629,7 +9629,7 @@
         <v>0.25</v>
       </c>
       <c r="AS45" t="n">
-        <v>2.36</v>
+        <v>2.4</v>
       </c>
       <c r="AT45" t="n">
         <v>0.57</v>
@@ -9832,10 +9832,10 @@
         <v>2.25</v>
       </c>
       <c r="AS46" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AT46" t="n">
-        <v>1.15</v>
+        <v>1.07</v>
       </c>
       <c r="AU46" t="n">
         <v>1.36</v>
@@ -10035,10 +10035,10 @@
         <v>0.67</v>
       </c>
       <c r="AS47" t="n">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AT47" t="n">
-        <v>0.23</v>
+        <v>0.21</v>
       </c>
       <c r="AU47" t="n">
         <v>1.45</v>
@@ -10238,7 +10238,7 @@
         <v>2.25</v>
       </c>
       <c r="AS48" t="n">
-        <v>2.36</v>
+        <v>2.4</v>
       </c>
       <c r="AT48" t="n">
         <v>1.38</v>
@@ -10441,10 +10441,10 @@
         <v>1.8</v>
       </c>
       <c r="AS49" t="n">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AT49" t="n">
-        <v>1.85</v>
+        <v>1.79</v>
       </c>
       <c r="AU49" t="n">
         <v>1.11</v>
@@ -10647,7 +10647,7 @@
         <v>2.54</v>
       </c>
       <c r="AT50" t="n">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AU50" t="n">
         <v>2.12</v>
@@ -11862,10 +11862,10 @@
         <v>0.17</v>
       </c>
       <c r="AS56" t="n">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AT56" t="n">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AU56" t="n">
         <v>1.38</v>
@@ -12065,10 +12065,10 @@
         <v>0.75</v>
       </c>
       <c r="AS57" t="n">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AT57" t="n">
-        <v>0.23</v>
+        <v>0.21</v>
       </c>
       <c r="AU57" t="n">
         <v>1.12</v>
@@ -12268,10 +12268,10 @@
         <v>2</v>
       </c>
       <c r="AS58" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AT58" t="n">
-        <v>1.85</v>
+        <v>1.79</v>
       </c>
       <c r="AU58" t="n">
         <v>1.19</v>
@@ -12471,10 +12471,10 @@
         <v>3</v>
       </c>
       <c r="AS59" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AT59" t="n">
-        <v>2.71</v>
+        <v>2.73</v>
       </c>
       <c r="AU59" t="n">
         <v>1.39</v>
@@ -12674,10 +12674,10 @@
         <v>2</v>
       </c>
       <c r="AS60" t="n">
-        <v>2.36</v>
+        <v>2.4</v>
       </c>
       <c r="AT60" t="n">
-        <v>1.15</v>
+        <v>1.07</v>
       </c>
       <c r="AU60" t="n">
         <v>2.02</v>
@@ -12877,7 +12877,7 @@
         <v>0.33</v>
       </c>
       <c r="AS61" t="n">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AT61" t="n">
         <v>0.5</v>
@@ -13286,7 +13286,7 @@
         <v>1.08</v>
       </c>
       <c r="AT63" t="n">
-        <v>1.85</v>
+        <v>1.79</v>
       </c>
       <c r="AU63" t="n">
         <v>1.34</v>
@@ -13892,10 +13892,10 @@
         <v>3</v>
       </c>
       <c r="AS66" t="n">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AT66" t="n">
-        <v>2.71</v>
+        <v>2.73</v>
       </c>
       <c r="AU66" t="n">
         <v>1.4</v>
@@ -14095,10 +14095,10 @@
         <v>0.14</v>
       </c>
       <c r="AS67" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AT67" t="n">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AU67" t="n">
         <v>1.25</v>
@@ -14298,10 +14298,10 @@
         <v>0.6</v>
       </c>
       <c r="AS68" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AT68" t="n">
-        <v>0.23</v>
+        <v>0.21</v>
       </c>
       <c r="AU68" t="n">
         <v>1.06</v>
@@ -14504,7 +14504,7 @@
         <v>2.29</v>
       </c>
       <c r="AT69" t="n">
-        <v>1.15</v>
+        <v>1.07</v>
       </c>
       <c r="AU69" t="n">
         <v>1.85</v>
@@ -14704,7 +14704,7 @@
         <v>1.33</v>
       </c>
       <c r="AS70" t="n">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AT70" t="n">
         <v>1.21</v>
@@ -14907,10 +14907,10 @@
         <v>3</v>
       </c>
       <c r="AS71" t="n">
-        <v>2.36</v>
+        <v>2.4</v>
       </c>
       <c r="AT71" t="n">
-        <v>2.71</v>
+        <v>2.73</v>
       </c>
       <c r="AU71" t="n">
         <v>2.02</v>
@@ -15113,7 +15113,7 @@
         <v>2.29</v>
       </c>
       <c r="AT72" t="n">
-        <v>0.23</v>
+        <v>0.21</v>
       </c>
       <c r="AU72" t="n">
         <v>1.76</v>
@@ -15313,7 +15313,7 @@
         <v>0.29</v>
       </c>
       <c r="AS73" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AT73" t="n">
         <v>0.57</v>
@@ -15719,7 +15719,7 @@
         <v>2.5</v>
       </c>
       <c r="AS75" t="n">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AT75" t="n">
         <v>2.23</v>
@@ -15925,7 +15925,7 @@
         <v>1.08</v>
       </c>
       <c r="AT76" t="n">
-        <v>1.15</v>
+        <v>1.07</v>
       </c>
       <c r="AU76" t="n">
         <v>1.34</v>
@@ -16128,7 +16128,7 @@
         <v>2.29</v>
       </c>
       <c r="AT77" t="n">
-        <v>2.71</v>
+        <v>2.73</v>
       </c>
       <c r="AU77" t="n">
         <v>1.74</v>
@@ -16331,7 +16331,7 @@
         <v>1.5</v>
       </c>
       <c r="AT78" t="n">
-        <v>0.23</v>
+        <v>0.21</v>
       </c>
       <c r="AU78" t="n">
         <v>1.18</v>
@@ -16531,7 +16531,7 @@
         <v>0.71</v>
       </c>
       <c r="AS79" t="n">
-        <v>2.36</v>
+        <v>2.4</v>
       </c>
       <c r="AT79" t="n">
         <v>0.5</v>
@@ -16734,10 +16734,10 @@
         <v>0.13</v>
       </c>
       <c r="AS80" t="n">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AT80" t="n">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AU80" t="n">
         <v>1.38</v>
@@ -16937,7 +16937,7 @@
         <v>1.29</v>
       </c>
       <c r="AS81" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AT81" t="n">
         <v>1.21</v>
@@ -17140,7 +17140,7 @@
         <v>1.63</v>
       </c>
       <c r="AS82" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AT82" t="n">
         <v>1.38</v>
@@ -17346,7 +17346,7 @@
         <v>2.54</v>
       </c>
       <c r="AT83" t="n">
-        <v>1.15</v>
+        <v>1.07</v>
       </c>
       <c r="AU83" t="n">
         <v>2.1</v>
@@ -17546,7 +17546,7 @@
         <v>2.57</v>
       </c>
       <c r="AS84" t="n">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AT84" t="n">
         <v>2.23</v>
@@ -17752,7 +17752,7 @@
         <v>1.08</v>
       </c>
       <c r="AT85" t="n">
-        <v>0.23</v>
+        <v>0.21</v>
       </c>
       <c r="AU85" t="n">
         <v>1.37</v>
@@ -17952,10 +17952,10 @@
         <v>2</v>
       </c>
       <c r="AS86" t="n">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AT86" t="n">
-        <v>1.85</v>
+        <v>1.79</v>
       </c>
       <c r="AU86" t="n">
         <v>1.23</v>
@@ -18767,7 +18767,7 @@
         <v>1.07</v>
       </c>
       <c r="AT90" t="n">
-        <v>2.71</v>
+        <v>2.73</v>
       </c>
       <c r="AU90" t="n">
         <v>1.58</v>
@@ -18967,7 +18967,7 @@
         <v>0.38</v>
       </c>
       <c r="AS91" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AT91" t="n">
         <v>0.57</v>
@@ -19170,10 +19170,10 @@
         <v>1.22</v>
       </c>
       <c r="AS92" t="n">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AT92" t="n">
-        <v>1.15</v>
+        <v>1.07</v>
       </c>
       <c r="AU92" t="n">
         <v>1.31</v>
@@ -19373,10 +19373,10 @@
         <v>2.78</v>
       </c>
       <c r="AS93" t="n">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AT93" t="n">
-        <v>2.71</v>
+        <v>2.73</v>
       </c>
       <c r="AU93" t="n">
         <v>1.26</v>
@@ -19576,10 +19576,10 @@
         <v>0.44</v>
       </c>
       <c r="AS94" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AT94" t="n">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AU94" t="n">
         <v>1.21</v>
@@ -19779,10 +19779,10 @@
         <v>0.33</v>
       </c>
       <c r="AS95" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AT95" t="n">
-        <v>0.23</v>
+        <v>0.21</v>
       </c>
       <c r="AU95" t="n">
         <v>1.3</v>
@@ -19982,10 +19982,10 @@
         <v>2.11</v>
       </c>
       <c r="AS96" t="n">
-        <v>2.36</v>
+        <v>2.4</v>
       </c>
       <c r="AT96" t="n">
-        <v>1.85</v>
+        <v>1.79</v>
       </c>
       <c r="AU96" t="n">
         <v>1.93</v>
@@ -21200,10 +21200,10 @@
         <v>2.8</v>
       </c>
       <c r="AS102" t="n">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AT102" t="n">
-        <v>2.71</v>
+        <v>2.73</v>
       </c>
       <c r="AU102" t="n">
         <v>1.27</v>
@@ -21403,10 +21403,10 @@
         <v>1.2</v>
       </c>
       <c r="AS103" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AT103" t="n">
-        <v>1.15</v>
+        <v>1.07</v>
       </c>
       <c r="AU103" t="n">
         <v>1.22</v>
@@ -21609,7 +21609,7 @@
         <v>2.29</v>
       </c>
       <c r="AT104" t="n">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AU104" t="n">
         <v>1.62</v>
@@ -21809,7 +21809,7 @@
         <v>1</v>
       </c>
       <c r="AS105" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AT105" t="n">
         <v>1.21</v>
@@ -22012,10 +22012,10 @@
         <v>0.3</v>
       </c>
       <c r="AS106" t="n">
-        <v>2.36</v>
+        <v>2.4</v>
       </c>
       <c r="AT106" t="n">
-        <v>0.23</v>
+        <v>0.21</v>
       </c>
       <c r="AU106" t="n">
         <v>1.95</v>
@@ -22218,7 +22218,7 @@
         <v>1.5</v>
       </c>
       <c r="AT107" t="n">
-        <v>1.85</v>
+        <v>1.79</v>
       </c>
       <c r="AU107" t="n">
         <v>1.25</v>
@@ -22418,7 +22418,7 @@
         <v>0.4</v>
       </c>
       <c r="AS108" t="n">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AT108" t="n">
         <v>0.57</v>
@@ -23230,7 +23230,7 @@
         <v>0.55</v>
       </c>
       <c r="AS112" t="n">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AT112" t="n">
         <v>0.5</v>
@@ -23436,7 +23436,7 @@
         <v>1.5</v>
       </c>
       <c r="AT113" t="n">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AU113" t="n">
         <v>1.27</v>
@@ -23639,7 +23639,7 @@
         <v>2.29</v>
       </c>
       <c r="AT114" t="n">
-        <v>0.23</v>
+        <v>0.21</v>
       </c>
       <c r="AU114" t="n">
         <v>1.63</v>
@@ -23839,7 +23839,7 @@
         <v>1.18</v>
       </c>
       <c r="AS115" t="n">
-        <v>2.36</v>
+        <v>2.4</v>
       </c>
       <c r="AT115" t="n">
         <v>1.21</v>
@@ -24042,10 +24042,10 @@
         <v>2.64</v>
       </c>
       <c r="AS116" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AT116" t="n">
-        <v>2.71</v>
+        <v>2.73</v>
       </c>
       <c r="AU116" t="n">
         <v>1.25</v>
@@ -24245,7 +24245,7 @@
         <v>1.27</v>
       </c>
       <c r="AS117" t="n">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AT117" t="n">
         <v>1.38</v>
@@ -24451,7 +24451,7 @@
         <v>1.07</v>
       </c>
       <c r="AT118" t="n">
-        <v>1.15</v>
+        <v>1.07</v>
       </c>
       <c r="AU118" t="n">
         <v>1.46</v>
@@ -24651,7 +24651,7 @@
         <v>2.36</v>
       </c>
       <c r="AS119" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AT119" t="n">
         <v>2.23</v>
@@ -25060,7 +25060,7 @@
         <v>2.54</v>
       </c>
       <c r="AT121" t="n">
-        <v>1.85</v>
+        <v>1.79</v>
       </c>
       <c r="AU121" t="n">
         <v>2.02</v>
@@ -25260,7 +25260,7 @@
         <v>0.5</v>
       </c>
       <c r="AS122" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AT122" t="n">
         <v>0.5</v>
@@ -25466,7 +25466,7 @@
         <v>1.07</v>
       </c>
       <c r="AT123" t="n">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AU123" t="n">
         <v>1.49</v>
@@ -25666,7 +25666,7 @@
         <v>0.58</v>
       </c>
       <c r="AS124" t="n">
-        <v>2.36</v>
+        <v>2.4</v>
       </c>
       <c r="AT124" t="n">
         <v>0.57</v>
@@ -25872,7 +25872,7 @@
         <v>1.5</v>
       </c>
       <c r="AT125" t="n">
-        <v>2.71</v>
+        <v>2.73</v>
       </c>
       <c r="AU125" t="n">
         <v>1.3</v>
@@ -26275,7 +26275,7 @@
         <v>1.42</v>
       </c>
       <c r="AS127" t="n">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AT127" t="n">
         <v>1.38</v>
@@ -26478,10 +26478,10 @@
         <v>0.54</v>
       </c>
       <c r="AS128" t="n">
-        <v>2.36</v>
+        <v>2.4</v>
       </c>
       <c r="AT128" t="n">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AU128" t="n">
         <v>1.93</v>
@@ -26681,10 +26681,10 @@
         <v>1.17</v>
       </c>
       <c r="AS129" t="n">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AT129" t="n">
-        <v>1.15</v>
+        <v>1.07</v>
       </c>
       <c r="AU129" t="n">
         <v>1.23</v>
@@ -26887,7 +26887,7 @@
         <v>2.54</v>
       </c>
       <c r="AT130" t="n">
-        <v>0.23</v>
+        <v>0.21</v>
       </c>
       <c r="AU130" t="n">
         <v>1.97</v>
@@ -27087,10 +27087,10 @@
         <v>1.75</v>
       </c>
       <c r="AS131" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AT131" t="n">
-        <v>1.85</v>
+        <v>1.79</v>
       </c>
       <c r="AU131" t="n">
         <v>1.26</v>
@@ -27293,7 +27293,7 @@
         <v>1.08</v>
       </c>
       <c r="AT132" t="n">
-        <v>2.71</v>
+        <v>2.73</v>
       </c>
       <c r="AU132" t="n">
         <v>1.5</v>
@@ -27493,7 +27493,7 @@
         <v>2.17</v>
       </c>
       <c r="AS133" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AT133" t="n">
         <v>2.23</v>
@@ -28157,6 +28157,1021 @@
       </c>
       <c r="BK136" t="n">
         <v>9</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B137" t="n">
+        <v>3157138</v>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>Azerbaijan Premyer Liqası</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E137" s="2" t="n">
+        <v>45016.35416666666</v>
+      </c>
+      <c r="F137" t="n">
+        <v>28</v>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>Turan</t>
+        </is>
+      </c>
+      <c r="H137" t="inlineStr">
+        <is>
+          <t>Sumqayıt</t>
+        </is>
+      </c>
+      <c r="I137" t="n">
+        <v>2</v>
+      </c>
+      <c r="J137" t="n">
+        <v>1</v>
+      </c>
+      <c r="K137" t="n">
+        <v>3</v>
+      </c>
+      <c r="L137" t="n">
+        <v>2</v>
+      </c>
+      <c r="M137" t="n">
+        <v>3</v>
+      </c>
+      <c r="N137" t="n">
+        <v>5</v>
+      </c>
+      <c r="O137" t="inlineStr">
+        <is>
+          <t>['7', '33']</t>
+        </is>
+      </c>
+      <c r="P137" t="inlineStr">
+        <is>
+          <t>['11', '58', '68']</t>
+        </is>
+      </c>
+      <c r="Q137" t="n">
+        <v>1</v>
+      </c>
+      <c r="R137" t="n">
+        <v>7</v>
+      </c>
+      <c r="S137" t="n">
+        <v>8</v>
+      </c>
+      <c r="T137" t="n">
+        <v>3</v>
+      </c>
+      <c r="U137" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V137" t="n">
+        <v>4</v>
+      </c>
+      <c r="W137" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="X137" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="Y137" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="Z137" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AA137" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AB137" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AC137" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AD137" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="AE137" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AF137" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AG137" t="n">
+        <v>6.65</v>
+      </c>
+      <c r="AH137" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AI137" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="AJ137" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AK137" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AL137" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AM137" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AN137" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AO137" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AP137" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AQ137" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="AR137" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AS137" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="AT137" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AU137" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AV137" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AW137" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AX137" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY137" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ137" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA137" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB137" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC137" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD137" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE137" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF137" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG137" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH137" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI137" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ137" t="n">
+        <v>7</v>
+      </c>
+      <c r="BK137" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B138" t="n">
+        <v>3157140</v>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>Azerbaijan Premyer Liqası</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E138" s="2" t="n">
+        <v>45017.35416666666</v>
+      </c>
+      <c r="F138" t="n">
+        <v>28</v>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>Kapaz</t>
+        </is>
+      </c>
+      <c r="H138" t="inlineStr">
+        <is>
+          <t>Sabail FK</t>
+        </is>
+      </c>
+      <c r="I138" t="n">
+        <v>0</v>
+      </c>
+      <c r="J138" t="n">
+        <v>0</v>
+      </c>
+      <c r="K138" t="n">
+        <v>0</v>
+      </c>
+      <c r="L138" t="n">
+        <v>1</v>
+      </c>
+      <c r="M138" t="n">
+        <v>0</v>
+      </c>
+      <c r="N138" t="n">
+        <v>1</v>
+      </c>
+      <c r="O138" t="inlineStr">
+        <is>
+          <t>['69']</t>
+        </is>
+      </c>
+      <c r="P138" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q138" t="n">
+        <v>5</v>
+      </c>
+      <c r="R138" t="n">
+        <v>5</v>
+      </c>
+      <c r="S138" t="n">
+        <v>10</v>
+      </c>
+      <c r="T138" t="n">
+        <v>3</v>
+      </c>
+      <c r="U138" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V138" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="W138" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="X138" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="Y138" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="Z138" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AA138" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB138" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC138" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AD138" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AE138" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AF138" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG138" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AH138" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AI138" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="AJ138" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AK138" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AL138" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AM138" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AN138" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AO138" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AP138" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AQ138" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AR138" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="AS138" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AT138" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="AU138" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AV138" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AW138" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="AX138" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY138" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ138" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA138" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB138" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC138" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD138" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE138" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF138" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG138" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH138" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI138" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ138" t="n">
+        <v>14</v>
+      </c>
+      <c r="BK138" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B139" t="n">
+        <v>3157142</v>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>Azerbaijan Premyer Liqası</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E139" s="2" t="n">
+        <v>45017.52083333334</v>
+      </c>
+      <c r="F139" t="n">
+        <v>28</v>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>Zira</t>
+        </is>
+      </c>
+      <c r="H139" t="inlineStr">
+        <is>
+          <t>Neftçi</t>
+        </is>
+      </c>
+      <c r="I139" t="n">
+        <v>0</v>
+      </c>
+      <c r="J139" t="n">
+        <v>1</v>
+      </c>
+      <c r="K139" t="n">
+        <v>1</v>
+      </c>
+      <c r="L139" t="n">
+        <v>1</v>
+      </c>
+      <c r="M139" t="n">
+        <v>1</v>
+      </c>
+      <c r="N139" t="n">
+        <v>2</v>
+      </c>
+      <c r="O139" t="inlineStr">
+        <is>
+          <t>['70']</t>
+        </is>
+      </c>
+      <c r="P139" t="inlineStr">
+        <is>
+          <t>['12']</t>
+        </is>
+      </c>
+      <c r="Q139" t="n">
+        <v>6</v>
+      </c>
+      <c r="R139" t="n">
+        <v>3</v>
+      </c>
+      <c r="S139" t="n">
+        <v>9</v>
+      </c>
+      <c r="T139" t="n">
+        <v>4</v>
+      </c>
+      <c r="U139" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V139" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="W139" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="X139" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="Y139" t="n">
+        <v>3.46</v>
+      </c>
+      <c r="Z139" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AA139" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AB139" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AC139" t="n">
+        <v>3</v>
+      </c>
+      <c r="AD139" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AE139" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AF139" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG139" t="n">
+        <v>6.65</v>
+      </c>
+      <c r="AH139" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AI139" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="AJ139" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AK139" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AL139" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="AM139" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AN139" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AO139" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AP139" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AQ139" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AR139" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AS139" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AT139" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AU139" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AV139" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AW139" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="AX139" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY139" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ139" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA139" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB139" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC139" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD139" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE139" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF139" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG139" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH139" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI139" t="n">
+        <v>9</v>
+      </c>
+      <c r="BJ139" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK139" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B140" t="n">
+        <v>3157139</v>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>Azerbaijan Premyer Liqası</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E140" s="2" t="n">
+        <v>45018.35416666666</v>
+      </c>
+      <c r="F140" t="n">
+        <v>28</v>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>İnter Bakı</t>
+        </is>
+      </c>
+      <c r="H140" t="inlineStr">
+        <is>
+          <t>Qarabağ</t>
+        </is>
+      </c>
+      <c r="I140" t="n">
+        <v>0</v>
+      </c>
+      <c r="J140" t="n">
+        <v>1</v>
+      </c>
+      <c r="K140" t="n">
+        <v>1</v>
+      </c>
+      <c r="L140" t="n">
+        <v>0</v>
+      </c>
+      <c r="M140" t="n">
+        <v>1</v>
+      </c>
+      <c r="N140" t="n">
+        <v>1</v>
+      </c>
+      <c r="O140" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P140" t="inlineStr">
+        <is>
+          <t>['33']</t>
+        </is>
+      </c>
+      <c r="Q140" t="n">
+        <v>2</v>
+      </c>
+      <c r="R140" t="n">
+        <v>2</v>
+      </c>
+      <c r="S140" t="n">
+        <v>4</v>
+      </c>
+      <c r="T140" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="U140" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="V140" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="W140" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="X140" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Y140" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="Z140" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AA140" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="AB140" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AC140" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AD140" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE140" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AF140" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG140" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="AH140" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AI140" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="AJ140" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AK140" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AL140" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AM140" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AN140" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="AO140" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AP140" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AQ140" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR140" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="AS140" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="AT140" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="AU140" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AV140" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="AW140" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="AX140" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY140" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ140" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA140" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB140" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC140" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD140" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE140" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF140" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG140" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH140" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI140" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ140" t="n">
+        <v>8</v>
+      </c>
+      <c r="BK140" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B141" t="n">
+        <v>3157141</v>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>Azerbaijan Premyer Liqası</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E141" s="2" t="n">
+        <v>45018.45833333334</v>
+      </c>
+      <c r="F141" t="n">
+        <v>28</v>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>Sabah</t>
+        </is>
+      </c>
+      <c r="H141" t="inlineStr">
+        <is>
+          <t>Qabala</t>
+        </is>
+      </c>
+      <c r="I141" t="n">
+        <v>1</v>
+      </c>
+      <c r="J141" t="n">
+        <v>2</v>
+      </c>
+      <c r="K141" t="n">
+        <v>3</v>
+      </c>
+      <c r="L141" t="n">
+        <v>3</v>
+      </c>
+      <c r="M141" t="n">
+        <v>2</v>
+      </c>
+      <c r="N141" t="n">
+        <v>5</v>
+      </c>
+      <c r="O141" t="inlineStr">
+        <is>
+          <t>['9', '86', '90+5']</t>
+        </is>
+      </c>
+      <c r="P141" t="inlineStr">
+        <is>
+          <t>['21', '27']</t>
+        </is>
+      </c>
+      <c r="Q141" t="n">
+        <v>8</v>
+      </c>
+      <c r="R141" t="n">
+        <v>3</v>
+      </c>
+      <c r="S141" t="n">
+        <v>11</v>
+      </c>
+      <c r="T141" t="n">
+        <v>2</v>
+      </c>
+      <c r="U141" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="V141" t="n">
+        <v>6</v>
+      </c>
+      <c r="W141" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="X141" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="Y141" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="Z141" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AA141" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AB141" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC141" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AD141" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AE141" t="n">
+        <v>5</v>
+      </c>
+      <c r="AF141" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG141" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH141" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AI141" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AJ141" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AK141" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AL141" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AM141" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AN141" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AO141" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP141" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AQ141" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="AR141" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AS141" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AT141" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AU141" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="AV141" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AW141" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="AX141" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY141" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ141" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA141" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB141" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC141" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD141" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE141" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF141" t="n">
+        <v>9</v>
+      </c>
+      <c r="BG141" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH141" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI141" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ141" t="n">
+        <v>16</v>
+      </c>
+      <c r="BK141" t="n">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Azerbaijan Premyer Liqası_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Azerbaijan Premyer Liqası_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK141"/>
+  <dimension ref="A1:BK144"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -903,7 +903,7 @@
         <v>1.21</v>
       </c>
       <c r="AT2" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AU2" t="n">
         <v>0</v>
@@ -1309,7 +1309,7 @@
         <v>0.93</v>
       </c>
       <c r="AT4" t="n">
-        <v>1.79</v>
+        <v>1.87</v>
       </c>
       <c r="AU4" t="n">
         <v>0</v>
@@ -1918,7 +1918,7 @@
         <v>1.33</v>
       </c>
       <c r="AT7" t="n">
-        <v>2.23</v>
+        <v>2.07</v>
       </c>
       <c r="AU7" t="n">
         <v>0</v>
@@ -2118,7 +2118,7 @@
         <v>0</v>
       </c>
       <c r="AS8" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AT8" t="n">
         <v>2.73</v>
@@ -2321,7 +2321,7 @@
         <v>0</v>
       </c>
       <c r="AS9" t="n">
-        <v>1.07</v>
+        <v>1.2</v>
       </c>
       <c r="AT9" t="n">
         <v>1.21</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="AS10" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AT10" t="n">
         <v>0.5</v>
@@ -3136,7 +3136,7 @@
         <v>2.4</v>
       </c>
       <c r="AT13" t="n">
-        <v>1.79</v>
+        <v>1.87</v>
       </c>
       <c r="AU13" t="n">
         <v>1.77</v>
@@ -3742,7 +3742,7 @@
         <v>3</v>
       </c>
       <c r="AS16" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AT16" t="n">
         <v>1.21</v>
@@ -3948,7 +3948,7 @@
         <v>2.29</v>
       </c>
       <c r="AT17" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AU17" t="n">
         <v>2.6</v>
@@ -4148,7 +4148,7 @@
         <v>0</v>
       </c>
       <c r="AS18" t="n">
-        <v>1.07</v>
+        <v>1.2</v>
       </c>
       <c r="AT18" t="n">
         <v>0.57</v>
@@ -4554,10 +4554,10 @@
         <v>3</v>
       </c>
       <c r="AS20" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AT20" t="n">
-        <v>2.23</v>
+        <v>2.07</v>
       </c>
       <c r="AU20" t="n">
         <v>1.01</v>
@@ -5975,10 +5975,10 @@
         <v>1.5</v>
       </c>
       <c r="AS27" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AT27" t="n">
-        <v>1.79</v>
+        <v>1.87</v>
       </c>
       <c r="AU27" t="n">
         <v>0.9399999999999999</v>
@@ -6178,10 +6178,10 @@
         <v>1.5</v>
       </c>
       <c r="AS28" t="n">
-        <v>1.07</v>
+        <v>1.2</v>
       </c>
       <c r="AT28" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AU28" t="n">
         <v>1.66</v>
@@ -6381,7 +6381,7 @@
         <v>0</v>
       </c>
       <c r="AS29" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AT29" t="n">
         <v>0.5</v>
@@ -6587,7 +6587,7 @@
         <v>2.54</v>
       </c>
       <c r="AT30" t="n">
-        <v>2.23</v>
+        <v>2.07</v>
       </c>
       <c r="AU30" t="n">
         <v>2.08</v>
@@ -6990,10 +6990,10 @@
         <v>2</v>
       </c>
       <c r="AS32" t="n">
-        <v>1.07</v>
+        <v>1.2</v>
       </c>
       <c r="AT32" t="n">
-        <v>1.79</v>
+        <v>1.87</v>
       </c>
       <c r="AU32" t="n">
         <v>1.66</v>
@@ -7193,7 +7193,7 @@
         <v>0.33</v>
       </c>
       <c r="AS33" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AT33" t="n">
         <v>0.67</v>
@@ -7802,7 +7802,7 @@
         <v>2</v>
       </c>
       <c r="AS36" t="n">
-        <v>1.07</v>
+        <v>1.2</v>
       </c>
       <c r="AT36" t="n">
         <v>1.07</v>
@@ -8008,7 +8008,7 @@
         <v>0.79</v>
       </c>
       <c r="AT37" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AU37" t="n">
         <v>1.32</v>
@@ -8211,7 +8211,7 @@
         <v>2.54</v>
       </c>
       <c r="AT38" t="n">
-        <v>1.79</v>
+        <v>1.87</v>
       </c>
       <c r="AU38" t="n">
         <v>2.16</v>
@@ -8414,7 +8414,7 @@
         <v>0.93</v>
       </c>
       <c r="AT39" t="n">
-        <v>2.23</v>
+        <v>2.07</v>
       </c>
       <c r="AU39" t="n">
         <v>1.45</v>
@@ -8614,7 +8614,7 @@
         <v>0</v>
       </c>
       <c r="AS40" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AT40" t="n">
         <v>0.57</v>
@@ -9020,7 +9020,7 @@
         <v>0.25</v>
       </c>
       <c r="AS42" t="n">
-        <v>1.07</v>
+        <v>1.2</v>
       </c>
       <c r="AT42" t="n">
         <v>0.67</v>
@@ -9426,7 +9426,7 @@
         <v>3</v>
       </c>
       <c r="AS44" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AT44" t="n">
         <v>2.73</v>
@@ -10241,7 +10241,7 @@
         <v>2.4</v>
       </c>
       <c r="AT48" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AU48" t="n">
         <v>2.07</v>
@@ -10444,7 +10444,7 @@
         <v>1.21</v>
       </c>
       <c r="AT49" t="n">
-        <v>1.79</v>
+        <v>1.87</v>
       </c>
       <c r="AU49" t="n">
         <v>1.11</v>
@@ -11050,7 +11050,7 @@
         <v>0.2</v>
       </c>
       <c r="AS52" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AT52" t="n">
         <v>0.57</v>
@@ -11253,10 +11253,10 @@
         <v>1.8</v>
       </c>
       <c r="AS53" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AT53" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AU53" t="n">
         <v>1.24</v>
@@ -11456,7 +11456,7 @@
         <v>0.2</v>
       </c>
       <c r="AS54" t="n">
-        <v>1.07</v>
+        <v>1.2</v>
       </c>
       <c r="AT54" t="n">
         <v>0.5</v>
@@ -11662,7 +11662,7 @@
         <v>2.29</v>
       </c>
       <c r="AT55" t="n">
-        <v>2.23</v>
+        <v>2.07</v>
       </c>
       <c r="AU55" t="n">
         <v>2.02</v>
@@ -12271,7 +12271,7 @@
         <v>1.33</v>
       </c>
       <c r="AT58" t="n">
-        <v>1.79</v>
+        <v>1.87</v>
       </c>
       <c r="AU58" t="n">
         <v>1.19</v>
@@ -13080,10 +13080,10 @@
         <v>2</v>
       </c>
       <c r="AS62" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AT62" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AU62" t="n">
         <v>1.12</v>
@@ -13283,10 +13283,10 @@
         <v>2.14</v>
       </c>
       <c r="AS63" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AT63" t="n">
-        <v>1.79</v>
+        <v>1.87</v>
       </c>
       <c r="AU63" t="n">
         <v>1.34</v>
@@ -13486,10 +13486,10 @@
         <v>2.4</v>
       </c>
       <c r="AS64" t="n">
-        <v>1.07</v>
+        <v>1.2</v>
       </c>
       <c r="AT64" t="n">
-        <v>2.23</v>
+        <v>2.07</v>
       </c>
       <c r="AU64" t="n">
         <v>1.64</v>
@@ -15519,7 +15519,7 @@
         <v>2.54</v>
       </c>
       <c r="AT74" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AU74" t="n">
         <v>2.15</v>
@@ -15722,7 +15722,7 @@
         <v>0.79</v>
       </c>
       <c r="AT75" t="n">
-        <v>2.23</v>
+        <v>2.07</v>
       </c>
       <c r="AU75" t="n">
         <v>1.28</v>
@@ -15922,7 +15922,7 @@
         <v>1.43</v>
       </c>
       <c r="AS76" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AT76" t="n">
         <v>1.07</v>
@@ -16328,7 +16328,7 @@
         <v>0.43</v>
       </c>
       <c r="AS78" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AT78" t="n">
         <v>0.21</v>
@@ -17143,7 +17143,7 @@
         <v>0.93</v>
       </c>
       <c r="AT82" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AU82" t="n">
         <v>1.29</v>
@@ -17549,7 +17549,7 @@
         <v>1.21</v>
       </c>
       <c r="AT84" t="n">
-        <v>2.23</v>
+        <v>2.07</v>
       </c>
       <c r="AU84" t="n">
         <v>1.35</v>
@@ -17749,7 +17749,7 @@
         <v>0.38</v>
       </c>
       <c r="AS85" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AT85" t="n">
         <v>0.21</v>
@@ -17955,7 +17955,7 @@
         <v>0.79</v>
       </c>
       <c r="AT86" t="n">
-        <v>1.79</v>
+        <v>1.87</v>
       </c>
       <c r="AU86" t="n">
         <v>1.23</v>
@@ -18358,10 +18358,10 @@
         <v>2.38</v>
       </c>
       <c r="AS88" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AT88" t="n">
-        <v>2.23</v>
+        <v>2.07</v>
       </c>
       <c r="AU88" t="n">
         <v>1.41</v>
@@ -18561,7 +18561,7 @@
         <v>1.13</v>
       </c>
       <c r="AS89" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AT89" t="n">
         <v>1.21</v>
@@ -18764,7 +18764,7 @@
         <v>2.75</v>
       </c>
       <c r="AS90" t="n">
-        <v>1.07</v>
+        <v>1.2</v>
       </c>
       <c r="AT90" t="n">
         <v>2.73</v>
@@ -19985,7 +19985,7 @@
         <v>2.4</v>
       </c>
       <c r="AT96" t="n">
-        <v>1.79</v>
+        <v>1.87</v>
       </c>
       <c r="AU96" t="n">
         <v>1.93</v>
@@ -20185,7 +20185,7 @@
         <v>1.11</v>
       </c>
       <c r="AS97" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AT97" t="n">
         <v>1.21</v>
@@ -20591,7 +20591,7 @@
         <v>0.44</v>
       </c>
       <c r="AS99" t="n">
-        <v>1.07</v>
+        <v>1.2</v>
       </c>
       <c r="AT99" t="n">
         <v>0.57</v>
@@ -20794,10 +20794,10 @@
         <v>2.44</v>
       </c>
       <c r="AS100" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AT100" t="n">
-        <v>2.23</v>
+        <v>2.07</v>
       </c>
       <c r="AU100" t="n">
         <v>1.32</v>
@@ -21000,7 +21000,7 @@
         <v>2.29</v>
       </c>
       <c r="AT101" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AU101" t="n">
         <v>1.63</v>
@@ -22215,10 +22215,10 @@
         <v>1.9</v>
       </c>
       <c r="AS107" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AT107" t="n">
-        <v>1.79</v>
+        <v>1.87</v>
       </c>
       <c r="AU107" t="n">
         <v>1.25</v>
@@ -22624,7 +22624,7 @@
         <v>2.54</v>
       </c>
       <c r="AT109" t="n">
-        <v>2.23</v>
+        <v>2.07</v>
       </c>
       <c r="AU109" t="n">
         <v>2.07</v>
@@ -22824,10 +22824,10 @@
         <v>1.4</v>
       </c>
       <c r="AS110" t="n">
-        <v>1.07</v>
+        <v>1.2</v>
       </c>
       <c r="AT110" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AU110" t="n">
         <v>1.44</v>
@@ -23027,7 +23027,7 @@
         <v>0.6</v>
       </c>
       <c r="AS111" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AT111" t="n">
         <v>0.5</v>
@@ -23433,7 +23433,7 @@
         <v>0.36</v>
       </c>
       <c r="AS113" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AT113" t="n">
         <v>0.67</v>
@@ -24248,7 +24248,7 @@
         <v>0.79</v>
       </c>
       <c r="AT117" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AU117" t="n">
         <v>1.23</v>
@@ -24448,7 +24448,7 @@
         <v>1.18</v>
       </c>
       <c r="AS118" t="n">
-        <v>1.07</v>
+        <v>1.2</v>
       </c>
       <c r="AT118" t="n">
         <v>1.07</v>
@@ -24654,7 +24654,7 @@
         <v>0.93</v>
       </c>
       <c r="AT119" t="n">
-        <v>2.23</v>
+        <v>2.07</v>
       </c>
       <c r="AU119" t="n">
         <v>1.31</v>
@@ -24854,7 +24854,7 @@
         <v>0.36</v>
       </c>
       <c r="AS120" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AT120" t="n">
         <v>0.57</v>
@@ -25060,7 +25060,7 @@
         <v>2.54</v>
       </c>
       <c r="AT121" t="n">
-        <v>1.79</v>
+        <v>1.87</v>
       </c>
       <c r="AU121" t="n">
         <v>2.02</v>
@@ -25463,7 +25463,7 @@
         <v>0.33</v>
       </c>
       <c r="AS123" t="n">
-        <v>1.07</v>
+        <v>1.2</v>
       </c>
       <c r="AT123" t="n">
         <v>0.67</v>
@@ -25869,7 +25869,7 @@
         <v>2.67</v>
       </c>
       <c r="AS125" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AT125" t="n">
         <v>2.73</v>
@@ -26278,7 +26278,7 @@
         <v>1.21</v>
       </c>
       <c r="AT127" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AU127" t="n">
         <v>1.23</v>
@@ -27090,7 +27090,7 @@
         <v>0.93</v>
       </c>
       <c r="AT131" t="n">
-        <v>1.79</v>
+        <v>1.87</v>
       </c>
       <c r="AU131" t="n">
         <v>1.26</v>
@@ -27290,7 +27290,7 @@
         <v>2.69</v>
       </c>
       <c r="AS132" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AT132" t="n">
         <v>2.73</v>
@@ -27496,7 +27496,7 @@
         <v>1.33</v>
       </c>
       <c r="AT133" t="n">
-        <v>2.23</v>
+        <v>2.07</v>
       </c>
       <c r="AU133" t="n">
         <v>1.2</v>
@@ -27696,7 +27696,7 @@
         <v>1.23</v>
       </c>
       <c r="AS134" t="n">
-        <v>1.07</v>
+        <v>1.2</v>
       </c>
       <c r="AT134" t="n">
         <v>1.21</v>
@@ -28102,7 +28102,7 @@
         <v>0.54</v>
       </c>
       <c r="AS136" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AT136" t="n">
         <v>0.5</v>
@@ -28714,7 +28714,7 @@
         <v>1.33</v>
       </c>
       <c r="AT139" t="n">
-        <v>1.79</v>
+        <v>1.87</v>
       </c>
       <c r="AU139" t="n">
         <v>1.17</v>
@@ -29172,6 +29172,615 @@
       </c>
       <c r="BK141" t="n">
         <v>13</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B142" t="n">
+        <v>3157144</v>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>Azerbaijan Premyer Liqası</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E142" s="2" t="n">
+        <v>45023.41666666666</v>
+      </c>
+      <c r="F142" t="n">
+        <v>29</v>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>Qabala</t>
+        </is>
+      </c>
+      <c r="H142" t="inlineStr">
+        <is>
+          <t>Zira</t>
+        </is>
+      </c>
+      <c r="I142" t="n">
+        <v>0</v>
+      </c>
+      <c r="J142" t="n">
+        <v>0</v>
+      </c>
+      <c r="K142" t="n">
+        <v>0</v>
+      </c>
+      <c r="L142" t="n">
+        <v>2</v>
+      </c>
+      <c r="M142" t="n">
+        <v>1</v>
+      </c>
+      <c r="N142" t="n">
+        <v>3</v>
+      </c>
+      <c r="O142" t="inlineStr">
+        <is>
+          <t>['59', '80']</t>
+        </is>
+      </c>
+      <c r="P142" t="inlineStr">
+        <is>
+          <t>['69']</t>
+        </is>
+      </c>
+      <c r="Q142" t="n">
+        <v>3</v>
+      </c>
+      <c r="R142" t="n">
+        <v>3</v>
+      </c>
+      <c r="S142" t="n">
+        <v>6</v>
+      </c>
+      <c r="T142" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="U142" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V142" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="W142" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="X142" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="Y142" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="Z142" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AA142" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AB142" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AC142" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AD142" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AE142" t="n">
+        <v>3</v>
+      </c>
+      <c r="AF142" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AG142" t="n">
+        <v>6.75</v>
+      </c>
+      <c r="AH142" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AI142" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AJ142" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AK142" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AL142" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AM142" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AN142" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AO142" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AP142" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AQ142" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AR142" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AS142" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AT142" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AU142" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AV142" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AW142" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="AX142" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY142" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ142" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA142" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB142" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC142" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD142" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE142" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF142" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG142" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH142" t="n">
+        <v>12</v>
+      </c>
+      <c r="BI142" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ142" t="n">
+        <v>18</v>
+      </c>
+      <c r="BK142" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B143" t="n">
+        <v>3157145</v>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>Azerbaijan Premyer Liqası</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E143" s="2" t="n">
+        <v>45024.4375</v>
+      </c>
+      <c r="F143" t="n">
+        <v>29</v>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>Sabail FK</t>
+        </is>
+      </c>
+      <c r="H143" t="inlineStr">
+        <is>
+          <t>Sabah</t>
+        </is>
+      </c>
+      <c r="I143" t="n">
+        <v>1</v>
+      </c>
+      <c r="J143" t="n">
+        <v>0</v>
+      </c>
+      <c r="K143" t="n">
+        <v>1</v>
+      </c>
+      <c r="L143" t="n">
+        <v>2</v>
+      </c>
+      <c r="M143" t="n">
+        <v>1</v>
+      </c>
+      <c r="N143" t="n">
+        <v>3</v>
+      </c>
+      <c r="O143" t="inlineStr">
+        <is>
+          <t>['29', '90+5']</t>
+        </is>
+      </c>
+      <c r="P143" t="inlineStr">
+        <is>
+          <t>['75']</t>
+        </is>
+      </c>
+      <c r="Q143" t="n">
+        <v>3</v>
+      </c>
+      <c r="R143" t="n">
+        <v>3</v>
+      </c>
+      <c r="S143" t="n">
+        <v>6</v>
+      </c>
+      <c r="T143" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="U143" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="V143" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="W143" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="X143" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="Y143" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="Z143" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA143" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB143" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC143" t="n">
+        <v>7</v>
+      </c>
+      <c r="AD143" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AE143" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AF143" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG143" t="n">
+        <v>12.25</v>
+      </c>
+      <c r="AH143" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AI143" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AJ143" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AK143" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL143" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AM143" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AN143" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AO143" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AP143" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AQ143" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AR143" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="AS143" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AT143" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="AU143" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AV143" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AW143" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="AX143" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY143" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ143" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA143" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB143" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC143" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD143" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE143" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF143" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG143" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH143" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI143" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ143" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK143" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B144" t="n">
+        <v>3157143</v>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>Azerbaijan Premyer Liqası</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E144" s="2" t="n">
+        <v>45024.54166666666</v>
+      </c>
+      <c r="F144" t="n">
+        <v>29</v>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>Sumqayıt</t>
+        </is>
+      </c>
+      <c r="H144" t="inlineStr">
+        <is>
+          <t>Neftçi</t>
+        </is>
+      </c>
+      <c r="I144" t="n">
+        <v>0</v>
+      </c>
+      <c r="J144" t="n">
+        <v>1</v>
+      </c>
+      <c r="K144" t="n">
+        <v>1</v>
+      </c>
+      <c r="L144" t="n">
+        <v>0</v>
+      </c>
+      <c r="M144" t="n">
+        <v>4</v>
+      </c>
+      <c r="N144" t="n">
+        <v>4</v>
+      </c>
+      <c r="O144" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P144" t="inlineStr">
+        <is>
+          <t>['7', '64', '82', '85']</t>
+        </is>
+      </c>
+      <c r="Q144" t="n">
+        <v>15</v>
+      </c>
+      <c r="R144" t="n">
+        <v>4</v>
+      </c>
+      <c r="S144" t="n">
+        <v>19</v>
+      </c>
+      <c r="T144" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="U144" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="V144" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="W144" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="X144" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="Y144" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="Z144" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AA144" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="AB144" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC144" t="n">
+        <v>5</v>
+      </c>
+      <c r="AD144" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AE144" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AF144" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG144" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="AH144" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AI144" t="n">
+        <v>3.37</v>
+      </c>
+      <c r="AJ144" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AK144" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AL144" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AM144" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AN144" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AO144" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AP144" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AQ144" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AR144" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AS144" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT144" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AU144" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AV144" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AW144" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="AX144" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY144" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ144" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA144" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB144" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC144" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD144" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE144" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF144" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG144" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH144" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI144" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ144" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK144" t="n">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Azerbaijan Premyer Liqası_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Azerbaijan Premyer Liqası_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK144"/>
+  <dimension ref="A1:BK146"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="AS3" t="n">
-        <v>2.54</v>
+        <v>2.57</v>
       </c>
       <c r="AT3" t="n">
         <v>0.21</v>
@@ -1712,7 +1712,7 @@
         <v>0</v>
       </c>
       <c r="AS6" t="n">
-        <v>0.79</v>
+        <v>0.8</v>
       </c>
       <c r="AT6" t="n">
         <v>1.07</v>
@@ -2527,7 +2527,7 @@
         <v>1.6</v>
       </c>
       <c r="AT10" t="n">
-        <v>0.5</v>
+        <v>0.53</v>
       </c>
       <c r="AU10" t="n">
         <v>0</v>
@@ -2730,7 +2730,7 @@
         <v>2.29</v>
       </c>
       <c r="AT11" t="n">
-        <v>0.57</v>
+        <v>0.53</v>
       </c>
       <c r="AU11" t="n">
         <v>0</v>
@@ -4151,7 +4151,7 @@
         <v>1.2</v>
       </c>
       <c r="AT18" t="n">
-        <v>0.57</v>
+        <v>0.53</v>
       </c>
       <c r="AU18" t="n">
         <v>1.23</v>
@@ -4351,10 +4351,10 @@
         <v>0</v>
       </c>
       <c r="AS19" t="n">
-        <v>2.54</v>
+        <v>2.57</v>
       </c>
       <c r="AT19" t="n">
-        <v>0.5</v>
+        <v>0.53</v>
       </c>
       <c r="AU19" t="n">
         <v>1.92</v>
@@ -5772,10 +5772,10 @@
         <v>0</v>
       </c>
       <c r="AS26" t="n">
-        <v>0.79</v>
+        <v>0.8</v>
       </c>
       <c r="AT26" t="n">
-        <v>0.57</v>
+        <v>0.53</v>
       </c>
       <c r="AU26" t="n">
         <v>1.34</v>
@@ -6384,7 +6384,7 @@
         <v>1</v>
       </c>
       <c r="AT29" t="n">
-        <v>0.5</v>
+        <v>0.53</v>
       </c>
       <c r="AU29" t="n">
         <v>0.83</v>
@@ -6584,7 +6584,7 @@
         <v>3</v>
       </c>
       <c r="AS30" t="n">
-        <v>2.54</v>
+        <v>2.57</v>
       </c>
       <c r="AT30" t="n">
         <v>2.07</v>
@@ -7399,7 +7399,7 @@
         <v>1.21</v>
       </c>
       <c r="AT34" t="n">
-        <v>0.5</v>
+        <v>0.53</v>
       </c>
       <c r="AU34" t="n">
         <v>0.92</v>
@@ -8005,7 +8005,7 @@
         <v>2</v>
       </c>
       <c r="AS37" t="n">
-        <v>0.79</v>
+        <v>0.8</v>
       </c>
       <c r="AT37" t="n">
         <v>1.29</v>
@@ -8208,7 +8208,7 @@
         <v>2.25</v>
       </c>
       <c r="AS38" t="n">
-        <v>2.54</v>
+        <v>2.57</v>
       </c>
       <c r="AT38" t="n">
         <v>1.87</v>
@@ -8617,7 +8617,7 @@
         <v>1</v>
       </c>
       <c r="AT40" t="n">
-        <v>0.57</v>
+        <v>0.53</v>
       </c>
       <c r="AU40" t="n">
         <v>1.25</v>
@@ -8820,7 +8820,7 @@
         <v>1.33</v>
       </c>
       <c r="AT41" t="n">
-        <v>0.5</v>
+        <v>0.53</v>
       </c>
       <c r="AU41" t="n">
         <v>1.19</v>
@@ -9632,7 +9632,7 @@
         <v>2.4</v>
       </c>
       <c r="AT45" t="n">
-        <v>0.57</v>
+        <v>0.53</v>
       </c>
       <c r="AU45" t="n">
         <v>2</v>
@@ -10035,7 +10035,7 @@
         <v>0.67</v>
       </c>
       <c r="AS47" t="n">
-        <v>0.79</v>
+        <v>0.8</v>
       </c>
       <c r="AT47" t="n">
         <v>0.21</v>
@@ -10644,7 +10644,7 @@
         <v>0.2</v>
       </c>
       <c r="AS50" t="n">
-        <v>2.54</v>
+        <v>2.57</v>
       </c>
       <c r="AT50" t="n">
         <v>0.67</v>
@@ -10847,7 +10847,7 @@
         <v>1.6</v>
       </c>
       <c r="AS51" t="n">
-        <v>2.54</v>
+        <v>2.57</v>
       </c>
       <c r="AT51" t="n">
         <v>1.21</v>
@@ -11053,7 +11053,7 @@
         <v>1.6</v>
       </c>
       <c r="AT52" t="n">
-        <v>0.57</v>
+        <v>0.53</v>
       </c>
       <c r="AU52" t="n">
         <v>1.08</v>
@@ -11459,7 +11459,7 @@
         <v>1.2</v>
       </c>
       <c r="AT54" t="n">
-        <v>0.5</v>
+        <v>0.53</v>
       </c>
       <c r="AU54" t="n">
         <v>1.61</v>
@@ -11862,7 +11862,7 @@
         <v>0.17</v>
       </c>
       <c r="AS56" t="n">
-        <v>0.79</v>
+        <v>0.8</v>
       </c>
       <c r="AT56" t="n">
         <v>0.67</v>
@@ -12877,10 +12877,10 @@
         <v>0.33</v>
       </c>
       <c r="AS61" t="n">
-        <v>0.79</v>
+        <v>0.8</v>
       </c>
       <c r="AT61" t="n">
-        <v>0.5</v>
+        <v>0.53</v>
       </c>
       <c r="AU61" t="n">
         <v>1.32</v>
@@ -13689,10 +13689,10 @@
         <v>0.33</v>
       </c>
       <c r="AS65" t="n">
-        <v>2.54</v>
+        <v>2.57</v>
       </c>
       <c r="AT65" t="n">
-        <v>0.57</v>
+        <v>0.53</v>
       </c>
       <c r="AU65" t="n">
         <v>2.15</v>
@@ -13892,7 +13892,7 @@
         <v>3</v>
       </c>
       <c r="AS66" t="n">
-        <v>0.79</v>
+        <v>0.8</v>
       </c>
       <c r="AT66" t="n">
         <v>2.73</v>
@@ -15316,7 +15316,7 @@
         <v>0.93</v>
       </c>
       <c r="AT73" t="n">
-        <v>0.57</v>
+        <v>0.53</v>
       </c>
       <c r="AU73" t="n">
         <v>1.26</v>
@@ -15516,7 +15516,7 @@
         <v>1.71</v>
       </c>
       <c r="AS74" t="n">
-        <v>2.54</v>
+        <v>2.57</v>
       </c>
       <c r="AT74" t="n">
         <v>1.29</v>
@@ -15719,7 +15719,7 @@
         <v>2.5</v>
       </c>
       <c r="AS75" t="n">
-        <v>0.79</v>
+        <v>0.8</v>
       </c>
       <c r="AT75" t="n">
         <v>2.07</v>
@@ -16534,7 +16534,7 @@
         <v>2.4</v>
       </c>
       <c r="AT79" t="n">
-        <v>0.5</v>
+        <v>0.53</v>
       </c>
       <c r="AU79" t="n">
         <v>1.95</v>
@@ -17343,7 +17343,7 @@
         <v>1.38</v>
       </c>
       <c r="AS83" t="n">
-        <v>2.54</v>
+        <v>2.57</v>
       </c>
       <c r="AT83" t="n">
         <v>1.07</v>
@@ -17952,7 +17952,7 @@
         <v>2</v>
       </c>
       <c r="AS86" t="n">
-        <v>0.79</v>
+        <v>0.8</v>
       </c>
       <c r="AT86" t="n">
         <v>1.87</v>
@@ -18158,7 +18158,7 @@
         <v>2.29</v>
       </c>
       <c r="AT87" t="n">
-        <v>0.5</v>
+        <v>0.53</v>
       </c>
       <c r="AU87" t="n">
         <v>1.68</v>
@@ -18970,7 +18970,7 @@
         <v>1.33</v>
       </c>
       <c r="AT91" t="n">
-        <v>0.57</v>
+        <v>0.53</v>
       </c>
       <c r="AU91" t="n">
         <v>1.24</v>
@@ -19373,7 +19373,7 @@
         <v>2.78</v>
       </c>
       <c r="AS93" t="n">
-        <v>0.79</v>
+        <v>0.8</v>
       </c>
       <c r="AT93" t="n">
         <v>2.73</v>
@@ -20388,10 +20388,10 @@
         <v>0.67</v>
       </c>
       <c r="AS98" t="n">
-        <v>2.54</v>
+        <v>2.57</v>
       </c>
       <c r="AT98" t="n">
-        <v>0.5</v>
+        <v>0.53</v>
       </c>
       <c r="AU98" t="n">
         <v>2.06</v>
@@ -20594,7 +20594,7 @@
         <v>1.2</v>
       </c>
       <c r="AT99" t="n">
-        <v>0.57</v>
+        <v>0.53</v>
       </c>
       <c r="AU99" t="n">
         <v>1.49</v>
@@ -22418,10 +22418,10 @@
         <v>0.4</v>
       </c>
       <c r="AS108" t="n">
-        <v>0.79</v>
+        <v>0.8</v>
       </c>
       <c r="AT108" t="n">
-        <v>0.57</v>
+        <v>0.53</v>
       </c>
       <c r="AU108" t="n">
         <v>1.24</v>
@@ -22621,7 +22621,7 @@
         <v>2.5</v>
       </c>
       <c r="AS109" t="n">
-        <v>2.54</v>
+        <v>2.57</v>
       </c>
       <c r="AT109" t="n">
         <v>2.07</v>
@@ -23030,7 +23030,7 @@
         <v>1</v>
       </c>
       <c r="AT111" t="n">
-        <v>0.5</v>
+        <v>0.53</v>
       </c>
       <c r="AU111" t="n">
         <v>1.5</v>
@@ -23233,7 +23233,7 @@
         <v>1.21</v>
       </c>
       <c r="AT112" t="n">
-        <v>0.5</v>
+        <v>0.53</v>
       </c>
       <c r="AU112" t="n">
         <v>1.22</v>
@@ -24245,7 +24245,7 @@
         <v>1.27</v>
       </c>
       <c r="AS117" t="n">
-        <v>0.79</v>
+        <v>0.8</v>
       </c>
       <c r="AT117" t="n">
         <v>1.29</v>
@@ -24857,7 +24857,7 @@
         <v>1</v>
       </c>
       <c r="AT120" t="n">
-        <v>0.57</v>
+        <v>0.53</v>
       </c>
       <c r="AU120" t="n">
         <v>1.46</v>
@@ -25057,7 +25057,7 @@
         <v>1.82</v>
       </c>
       <c r="AS121" t="n">
-        <v>2.54</v>
+        <v>2.57</v>
       </c>
       <c r="AT121" t="n">
         <v>1.87</v>
@@ -25263,7 +25263,7 @@
         <v>1.33</v>
       </c>
       <c r="AT122" t="n">
-        <v>0.5</v>
+        <v>0.53</v>
       </c>
       <c r="AU122" t="n">
         <v>1.21</v>
@@ -25669,7 +25669,7 @@
         <v>2.4</v>
       </c>
       <c r="AT124" t="n">
-        <v>0.57</v>
+        <v>0.53</v>
       </c>
       <c r="AU124" t="n">
         <v>1.91</v>
@@ -26681,7 +26681,7 @@
         <v>1.17</v>
       </c>
       <c r="AS129" t="n">
-        <v>0.79</v>
+        <v>0.8</v>
       </c>
       <c r="AT129" t="n">
         <v>1.07</v>
@@ -26884,7 +26884,7 @@
         <v>0.25</v>
       </c>
       <c r="AS130" t="n">
-        <v>2.54</v>
+        <v>2.57</v>
       </c>
       <c r="AT130" t="n">
         <v>0.21</v>
@@ -27902,7 +27902,7 @@
         <v>2.29</v>
       </c>
       <c r="AT135" t="n">
-        <v>0.57</v>
+        <v>0.53</v>
       </c>
       <c r="AU135" t="n">
         <v>1.65</v>
@@ -28105,7 +28105,7 @@
         <v>1.6</v>
       </c>
       <c r="AT136" t="n">
-        <v>0.5</v>
+        <v>0.53</v>
       </c>
       <c r="AU136" t="n">
         <v>1.28</v>
@@ -28305,7 +28305,7 @@
         <v>0.5</v>
       </c>
       <c r="AS137" t="n">
-        <v>0.79</v>
+        <v>0.8</v>
       </c>
       <c r="AT137" t="n">
         <v>0.67</v>
@@ -29781,6 +29781,412 @@
       </c>
       <c r="BK144" t="n">
         <v>11</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B145" t="n">
+        <v>3157147</v>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>Azerbaijan Premyer Liqası</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E145" s="2" t="n">
+        <v>45025.375</v>
+      </c>
+      <c r="F145" t="n">
+        <v>29</v>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>Turan</t>
+        </is>
+      </c>
+      <c r="H145" t="inlineStr">
+        <is>
+          <t>İnter Bakı</t>
+        </is>
+      </c>
+      <c r="I145" t="n">
+        <v>1</v>
+      </c>
+      <c r="J145" t="n">
+        <v>1</v>
+      </c>
+      <c r="K145" t="n">
+        <v>2</v>
+      </c>
+      <c r="L145" t="n">
+        <v>1</v>
+      </c>
+      <c r="M145" t="n">
+        <v>1</v>
+      </c>
+      <c r="N145" t="n">
+        <v>2</v>
+      </c>
+      <c r="O145" t="inlineStr">
+        <is>
+          <t>['2']</t>
+        </is>
+      </c>
+      <c r="P145" t="inlineStr">
+        <is>
+          <t>['9']</t>
+        </is>
+      </c>
+      <c r="Q145" t="n">
+        <v>6</v>
+      </c>
+      <c r="R145" t="n">
+        <v>2</v>
+      </c>
+      <c r="S145" t="n">
+        <v>8</v>
+      </c>
+      <c r="T145" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="U145" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V145" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="W145" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X145" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="Y145" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="Z145" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AA145" t="n">
+        <v>7.75</v>
+      </c>
+      <c r="AB145" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC145" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AD145" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AE145" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AF145" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG145" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AH145" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AI145" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="AJ145" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AK145" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AL145" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AM145" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AN145" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AO145" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP145" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AQ145" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="AR145" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AS145" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AT145" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="AU145" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AV145" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AW145" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AX145" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY145" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ145" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA145" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB145" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC145" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD145" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE145" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF145" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG145" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH145" t="n">
+        <v>2</v>
+      </c>
+      <c r="BI145" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ145" t="n">
+        <v>5</v>
+      </c>
+      <c r="BK145" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B146" t="n">
+        <v>3157146</v>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>Azerbaijan Premyer Liqası</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E146" s="2" t="n">
+        <v>45025.47916666666</v>
+      </c>
+      <c r="F146" t="n">
+        <v>29</v>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>Qarabağ</t>
+        </is>
+      </c>
+      <c r="H146" t="inlineStr">
+        <is>
+          <t>Kapaz</t>
+        </is>
+      </c>
+      <c r="I146" t="n">
+        <v>1</v>
+      </c>
+      <c r="J146" t="n">
+        <v>1</v>
+      </c>
+      <c r="K146" t="n">
+        <v>2</v>
+      </c>
+      <c r="L146" t="n">
+        <v>3</v>
+      </c>
+      <c r="M146" t="n">
+        <v>1</v>
+      </c>
+      <c r="N146" t="n">
+        <v>4</v>
+      </c>
+      <c r="O146" t="inlineStr">
+        <is>
+          <t>['5', '58', '67']</t>
+        </is>
+      </c>
+      <c r="P146" t="inlineStr">
+        <is>
+          <t>['29']</t>
+        </is>
+      </c>
+      <c r="Q146" t="n">
+        <v>7</v>
+      </c>
+      <c r="R146" t="n">
+        <v>3</v>
+      </c>
+      <c r="S146" t="n">
+        <v>10</v>
+      </c>
+      <c r="T146" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="U146" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="V146" t="n">
+        <v>13</v>
+      </c>
+      <c r="W146" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="X146" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="Y146" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="Z146" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AA146" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="AB146" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AC146" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AD146" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE146" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF146" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AG146" t="n">
+        <v>26</v>
+      </c>
+      <c r="AH146" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AI146" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="AJ146" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AK146" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AL146" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AM146" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AN146" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AO146" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AP146" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="AQ146" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="AR146" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="AS146" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="AT146" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="AU146" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AV146" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AW146" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="AX146" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY146" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ146" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA146" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB146" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC146" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD146" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE146" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF146" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG146" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH146" t="n">
+        <v>10</v>
+      </c>
+      <c r="BI146" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ146" t="n">
+        <v>15</v>
+      </c>
+      <c r="BK146" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
